--- a/assets/List_AllInputs_new1.xlsx
+++ b/assets/List_AllInputs_new1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schra02155\PycharmProjects\hanson-bas\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coals01826\Desktop\Coding\hanson-bas\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D977591-8586-4702-92AD-2CDFF80DAC63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DCE63E-E4F2-41CB-AED8-C4C98D77CBA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1211,7 +1211,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1609,13 +1609,13 @@
   <dimension ref="A1:S463"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="D2:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -1638,7 +1638,7 @@
     <col min="19" max="19" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>246</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="C31" t="s">
         <v>374</v>
@@ -3178,7 +3178,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="C32" t="s">
         <v>375</v>
@@ -3208,7 +3208,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="C33" t="s">
         <v>364</v>
@@ -3238,7 +3238,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="C34" t="s">
         <v>365</v>
@@ -3268,7 +3268,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="C35" t="s">
         <v>44</v>
@@ -3298,7 +3298,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="C36" t="s">
         <v>376</v>
@@ -3325,7 +3325,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="C37" t="s">
         <v>377</v>
@@ -3352,7 +3352,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="C38" t="s">
         <v>366</v>
@@ -3379,7 +3379,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="C39" t="s">
         <v>367</v>
@@ -3406,7 +3406,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="C40" t="s">
         <v>378</v>
@@ -3433,7 +3433,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>379</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>368</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>380</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>381</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>382</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>29</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>30</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>31</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>32</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>33</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>34</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>35</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>36</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>37</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>38</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>39</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>40</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>41</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>42</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>44</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>46</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>47</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>48</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>49</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>50</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>51</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>52</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>53</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>54</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>55</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>56</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>57</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>58</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>59</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>60</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>61</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>62</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>63</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>64</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>65</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>66</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>67</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>68</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>69</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>70</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>71</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>72</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>73</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>74</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>75</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>76</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>77</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>78</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>79</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>80</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>81</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>82</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>83</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>84</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>85</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>86</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>87</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>88</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>89</v>
       </c>
@@ -6558,7 +6558,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>90</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>91</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>92</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>93</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>94</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>95</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>96</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>97</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>98</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>99</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>100</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>101</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>102</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="120" spans="1:17">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>103</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="121" spans="1:17">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>104</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>105</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="123" spans="1:17">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>106</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="124" spans="1:17">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>107</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:17">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>108</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="126" spans="1:17">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>109</v>
       </c>
@@ -7538,7 +7538,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:17">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>110</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="128" spans="1:17">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>111</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:17">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>112</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="130" spans="1:17">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>113</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="131" spans="1:17">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>114</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:17">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>115</v>
       </c>
@@ -7838,7 +7838,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="133" spans="1:17">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>116</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="134" spans="1:17">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>117</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:17">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>118</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="136" spans="1:17">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>119</v>
       </c>
@@ -8031,7 +8031,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="137" spans="1:17">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>120</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:17">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>121</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:17">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>122</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="140" spans="1:17">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>123</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="141" spans="1:17">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>124</v>
       </c>
@@ -8282,7 +8282,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="142" spans="1:17">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>125</v>
       </c>
@@ -8331,7 +8331,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="143" spans="1:17">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>126</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:17">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>127</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="145" spans="1:17">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>128</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:17">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>129</v>
       </c>
@@ -8518,7 +8518,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:17">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>130</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="148" spans="1:17">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>131</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:17">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>132</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="150" spans="1:17">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>133</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="151" spans="1:17">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>134</v>
       </c>
@@ -8763,7 +8763,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:17">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>135</v>
       </c>
@@ -8815,7 +8815,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:17">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>136</v>
       </c>
@@ -8864,7 +8864,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="154" spans="1:17">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>137</v>
       </c>
@@ -8913,7 +8913,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="155" spans="1:17">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>138</v>
       </c>
@@ -8962,7 +8962,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="156" spans="1:17">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>139</v>
       </c>
@@ -9011,7 +9011,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="157" spans="1:17">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>140</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:17">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>141</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:17">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>142</v>
       </c>
@@ -9158,7 +9158,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="160" spans="1:17">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>143</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="161" spans="1:17">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>144</v>
       </c>
@@ -9253,7 +9253,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:17">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>145</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="163" spans="1:17">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>146</v>
       </c>
@@ -9357,7 +9357,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="164" spans="1:17">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>147</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:17">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>148</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="166" spans="1:17">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>149</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:17">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>150</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="168" spans="1:17">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>151</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="169" spans="1:17">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>152</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:17">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>153</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="171" spans="1:17">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>154</v>
       </c>
@@ -9743,7 +9743,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:17">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>155</v>
       </c>
@@ -9798,7 +9798,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="173" spans="1:17">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>156</v>
       </c>
@@ -9847,7 +9847,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="174" spans="1:17">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>157</v>
       </c>
@@ -9893,7 +9893,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:17">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>158</v>
       </c>
@@ -9942,7 +9942,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="176" spans="1:17">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>159</v>
       </c>
@@ -9988,7 +9988,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:17">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>160</v>
       </c>
@@ -10043,7 +10043,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="178" spans="1:17">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>161</v>
       </c>
@@ -10092,7 +10092,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="179" spans="1:17">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>162</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:17">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>163</v>
       </c>
@@ -10187,7 +10187,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="181" spans="1:17">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>164</v>
       </c>
@@ -10233,7 +10233,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:17">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>165</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:17">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>166</v>
       </c>
@@ -10334,7 +10334,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="184" spans="1:17">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>167</v>
       </c>
@@ -10383,7 +10383,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="185" spans="1:17">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>168</v>
       </c>
@@ -10432,7 +10432,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="186" spans="1:17">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>169</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:17">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>170</v>
       </c>
@@ -10533,7 +10533,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="188" spans="1:17">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>171</v>
       </c>
@@ -10582,7 +10582,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="189" spans="1:17">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>172</v>
       </c>
@@ -10628,7 +10628,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:17">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>173</v>
       </c>
@@ -10674,7 +10674,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:17">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>174</v>
       </c>
@@ -10729,7 +10729,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="192" spans="1:17">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>175</v>
       </c>
@@ -10778,7 +10778,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="193" spans="1:17">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>176</v>
       </c>
@@ -10824,7 +10824,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:17">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>177</v>
       </c>
@@ -10873,7 +10873,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="195" spans="1:17">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>178</v>
       </c>
@@ -10919,7 +10919,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:17">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>179</v>
       </c>
@@ -10974,7 +10974,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="197" spans="1:17">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>180</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="198" spans="1:17">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>181</v>
       </c>
@@ -11072,7 +11072,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="199" spans="1:17">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>182</v>
       </c>
@@ -11118,7 +11118,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:17">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>183</v>
       </c>
@@ -11164,7 +11164,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:17">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>184</v>
       </c>
@@ -11210,7 +11210,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:17">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>185</v>
       </c>
@@ -11265,7 +11265,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="203" spans="1:17">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>186</v>
       </c>
@@ -11314,7 +11314,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="204" spans="1:17">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>187</v>
       </c>
@@ -11360,7 +11360,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:17">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>188</v>
       </c>
@@ -11406,7 +11406,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:17">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>189</v>
       </c>
@@ -11461,7 +11461,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="207" spans="1:17">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>190</v>
       </c>
@@ -11510,7 +11510,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="208" spans="1:17">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>191</v>
       </c>
@@ -11556,7 +11556,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:17">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>192</v>
       </c>
@@ -11605,7 +11605,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="210" spans="1:17">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>193</v>
       </c>
@@ -11654,7 +11654,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="211" spans="1:17">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>194</v>
       </c>
@@ -11700,7 +11700,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:17">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>195</v>
       </c>
@@ -11752,7 +11752,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:17">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>196</v>
       </c>
@@ -11801,7 +11801,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="214" spans="1:17">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>197</v>
       </c>
@@ -11850,7 +11850,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="215" spans="1:17">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>198</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="216" spans="1:17">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>199</v>
       </c>
@@ -11948,7 +11948,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="217" spans="1:17">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>200</v>
       </c>
@@ -11994,7 +11994,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:17">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>201</v>
       </c>
@@ -12049,7 +12049,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="219" spans="1:17">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>202</v>
       </c>
@@ -12098,7 +12098,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="220" spans="1:17">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>203</v>
       </c>
@@ -12144,7 +12144,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:17">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>204</v>
       </c>
@@ -12193,7 +12193,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="222" spans="1:17">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>205</v>
       </c>
@@ -12242,7 +12242,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="223" spans="1:17">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>206</v>
       </c>
@@ -12288,7 +12288,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:17">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>207</v>
       </c>
@@ -12343,7 +12343,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="225" spans="1:17">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>208</v>
       </c>
@@ -12392,7 +12392,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="226" spans="1:17">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>209</v>
       </c>
@@ -12438,7 +12438,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:17">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>210</v>
       </c>
@@ -12487,7 +12487,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="228" spans="1:17">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>211</v>
       </c>
@@ -12533,7 +12533,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:17">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>212</v>
       </c>
@@ -12579,7 +12579,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:17">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>213</v>
       </c>
@@ -12634,7 +12634,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="231" spans="1:17">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>214</v>
       </c>
@@ -12683,7 +12683,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="232" spans="1:17">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>215</v>
       </c>
@@ -12732,7 +12732,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="233" spans="1:17">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>216</v>
       </c>
@@ -12778,7 +12778,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:17">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>217</v>
       </c>
@@ -12824,7 +12824,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:17">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>218</v>
       </c>
@@ -12876,7 +12876,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:17">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>219</v>
       </c>
@@ -12925,7 +12925,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="237" spans="1:17">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>220</v>
       </c>
@@ -12974,7 +12974,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="238" spans="1:17">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>221</v>
       </c>
@@ -13023,7 +13023,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="239" spans="1:17">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>222</v>
       </c>
@@ -13069,7 +13069,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:17">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>223</v>
       </c>
@@ -13121,7 +13121,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:17">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>224</v>
       </c>
@@ -13170,7 +13170,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="242" spans="1:17">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>225</v>
       </c>
@@ -13219,7 +13219,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="243" spans="1:17">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>226</v>
       </c>
@@ -13268,7 +13268,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="244" spans="1:17">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>227</v>
       </c>
@@ -13314,7 +13314,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:17">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>228</v>
       </c>
@@ -13369,7 +13369,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="246" spans="1:17">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>229</v>
       </c>
@@ -13418,7 +13418,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="247" spans="1:17">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>230</v>
       </c>
@@ -13464,7 +13464,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:17">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>231</v>
       </c>
@@ -13513,7 +13513,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="249" spans="1:17">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>232</v>
       </c>
@@ -13559,7 +13559,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:17">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>233</v>
       </c>
@@ -13614,7 +13614,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="251" spans="1:17">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>234</v>
       </c>
@@ -13663,7 +13663,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="252" spans="1:17">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>235</v>
       </c>
@@ -13709,7 +13709,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:17">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>236</v>
       </c>
@@ -13758,7 +13758,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="254" spans="1:17">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>237</v>
       </c>
@@ -13804,7 +13804,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:17">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>238</v>
       </c>
@@ -13859,7 +13859,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="256" spans="1:17">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>239</v>
       </c>
@@ -13908,7 +13908,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="257" spans="1:17">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>240</v>
       </c>
@@ -13954,7 +13954,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:17">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>241</v>
       </c>
@@ -14003,7 +14003,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="259" spans="1:17">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>242</v>
       </c>
@@ -14049,7 +14049,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:17">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>243</v>
       </c>
@@ -14101,7 +14101,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:17">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>244</v>
       </c>
@@ -14150,7 +14150,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="262" spans="1:17">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>245</v>
       </c>
@@ -14199,7 +14199,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="263" spans="1:17">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>246</v>
       </c>
@@ -14245,7 +14245,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:17">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>247</v>
       </c>
@@ -14300,7 +14300,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="265" spans="1:17">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>248</v>
       </c>
@@ -14349,7 +14349,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="266" spans="1:17">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>249</v>
       </c>
@@ -14395,7 +14395,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:17">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>250</v>
       </c>
@@ -14450,7 +14450,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="268" spans="1:17">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>251</v>
       </c>
@@ -14499,7 +14499,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="269" spans="1:17">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>252</v>
       </c>
@@ -14545,7 +14545,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:17">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>253</v>
       </c>
@@ -14594,7 +14594,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="271" spans="1:17">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>254</v>
       </c>
@@ -14643,7 +14643,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="272" spans="1:17">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>255</v>
       </c>
@@ -14689,7 +14689,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:17">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>256</v>
       </c>
@@ -14744,7 +14744,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="274" spans="1:17">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>257</v>
       </c>
@@ -14793,7 +14793,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="275" spans="1:17">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>258</v>
       </c>
@@ -14842,7 +14842,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="276" spans="1:17">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>259</v>
       </c>
@@ -14891,7 +14891,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="277" spans="1:17">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>260</v>
       </c>
@@ -14937,7 +14937,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="1:17">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>261</v>
       </c>
@@ -14983,7 +14983,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="1:17">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>262</v>
       </c>
@@ -15038,7 +15038,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="280" spans="1:17">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>263</v>
       </c>
@@ -15087,7 +15087,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="281" spans="1:17">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>264</v>
       </c>
@@ -15133,7 +15133,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:17">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>265</v>
       </c>
@@ -15182,7 +15182,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="283" spans="1:17">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>266</v>
       </c>
@@ -15231,7 +15231,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="284" spans="1:17">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>267</v>
       </c>
@@ -15277,7 +15277,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="1:17">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>268</v>
       </c>
@@ -15332,7 +15332,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="286" spans="1:17">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>269</v>
       </c>
@@ -15381,7 +15381,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="287" spans="1:17">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>270</v>
       </c>
@@ -15427,7 +15427,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="1:17">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>271</v>
       </c>
@@ -15476,7 +15476,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="289" spans="1:17">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>272</v>
       </c>
@@ -15522,7 +15522,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:17">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>273</v>
       </c>
@@ -15568,7 +15568,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:17">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>274</v>
       </c>
@@ -15623,7 +15623,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="292" spans="1:17">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>275</v>
       </c>
@@ -15672,7 +15672,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="293" spans="1:17">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>276</v>
       </c>
@@ -15721,7 +15721,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="294" spans="1:17">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>277</v>
       </c>
@@ -15767,7 +15767,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:17">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>278</v>
       </c>
@@ -15813,7 +15813,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="1:17">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>279</v>
       </c>
@@ -15865,7 +15865,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="1:17">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>280</v>
       </c>
@@ -15911,7 +15911,7 @@
         <v/>
       </c>
     </row>
-    <row r="298" spans="1:17">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>281</v>
       </c>
@@ -15959,7 +15959,7 @@
         <v>Bool</v>
       </c>
     </row>
-    <row r="299" spans="1:17">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>282</v>
       </c>
@@ -16001,7 +16001,7 @@
         <v>Bool</v>
       </c>
     </row>
-    <row r="300" spans="1:17">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>283</v>
       </c>
@@ -16043,7 +16043,7 @@
         <v>Bool</v>
       </c>
     </row>
-    <row r="301" spans="1:17">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>284</v>
       </c>
@@ -16085,7 +16085,7 @@
         <v>Bool</v>
       </c>
     </row>
-    <row r="302" spans="1:17">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="C302" t="s">
         <v>386</v>
@@ -16115,7 +16115,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="303" spans="1:17">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="C303" t="s">
         <v>387</v>
@@ -16142,7 +16142,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="304" spans="1:17">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="C304" t="s">
         <v>388</v>
@@ -16169,7 +16169,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="305" spans="1:19">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="C305" t="s">
         <v>389</v>
@@ -16196,7 +16196,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="306" spans="1:19">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C306" t="s">
         <v>386</v>
       </c>
@@ -16229,7 +16229,7 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="1:19">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C307" t="s">
         <v>387</v>
       </c>
@@ -16259,7 +16259,7 @@
         <v/>
       </c>
     </row>
-    <row r="308" spans="1:19">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C308" t="s">
         <v>388</v>
       </c>
@@ -16289,7 +16289,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="1:19">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C309" t="s">
         <v>389</v>
       </c>
@@ -16319,7 +16319,7 @@
         <v/>
       </c>
     </row>
-    <row r="310" spans="1:19">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>285</v>
       </c>
@@ -16368,7 +16368,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="311" spans="1:19">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>286</v>
       </c>
@@ -16414,7 +16414,7 @@
         <v/>
       </c>
     </row>
-    <row r="312" spans="1:19">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>287</v>
       </c>
@@ -16460,7 +16460,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="1:19">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>288</v>
       </c>
@@ -16506,7 +16506,7 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="1:19">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>289</v>
       </c>
@@ -16552,7 +16552,7 @@
         <v/>
       </c>
     </row>
-    <row r="315" spans="1:19">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>290</v>
       </c>
@@ -16604,7 +16604,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="1:19">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>291</v>
       </c>
@@ -16653,7 +16653,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="317" spans="1:19">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>292</v>
       </c>
@@ -16702,7 +16702,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="318" spans="1:19">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>293</v>
       </c>
@@ -16748,7 +16748,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="1:19">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>294</v>
       </c>
@@ -16800,7 +16800,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="1:19">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>295</v>
       </c>
@@ -16849,7 +16849,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="321" spans="1:17">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>296</v>
       </c>
@@ -16898,7 +16898,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="322" spans="1:17">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>297</v>
       </c>
@@ -16947,7 +16947,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="323" spans="1:17">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>298</v>
       </c>
@@ -16993,7 +16993,7 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="1:17">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>299</v>
       </c>
@@ -17045,7 +17045,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="1:17">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>300</v>
       </c>
@@ -17094,7 +17094,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="326" spans="1:17">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>301</v>
       </c>
@@ -17143,7 +17143,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="327" spans="1:17">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>302</v>
       </c>
@@ -17189,7 +17189,7 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="1:17">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>303</v>
       </c>
@@ -17241,7 +17241,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="1:17">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>304</v>
       </c>
@@ -17290,7 +17290,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="330" spans="1:17">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>305</v>
       </c>
@@ -17336,7 +17336,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="1:17">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>306</v>
       </c>
@@ -17382,7 +17382,7 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="1:17">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>307</v>
       </c>
@@ -17431,7 +17431,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="333" spans="1:17">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>308</v>
       </c>
@@ -17477,7 +17477,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="1:17">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>309</v>
       </c>
@@ -17529,7 +17529,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="1:17">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>310</v>
       </c>
@@ -17578,7 +17578,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="336" spans="1:17">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>311</v>
       </c>
@@ -17627,7 +17627,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="337" spans="1:17">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>312</v>
       </c>
@@ -17673,7 +17673,7 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="1:17">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>313</v>
       </c>
@@ -17725,7 +17725,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="1:17">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>314</v>
       </c>
@@ -17774,7 +17774,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="340" spans="1:17">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>315</v>
       </c>
@@ -17823,7 +17823,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="341" spans="1:17">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>316</v>
       </c>
@@ -17869,7 +17869,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="1:17">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>317</v>
       </c>
@@ -17915,7 +17915,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="1:17">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>318</v>
       </c>
@@ -17967,7 +17967,7 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="1:17">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>319</v>
       </c>
@@ -18016,7 +18016,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="345" spans="1:17">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>320</v>
       </c>
@@ -18062,7 +18062,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="1:17">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>321</v>
       </c>
@@ -18111,7 +18111,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="347" spans="1:17">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>322</v>
       </c>
@@ -18157,7 +18157,7 @@
         <v/>
       </c>
     </row>
-    <row r="348" spans="1:17">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>323</v>
       </c>
@@ -18209,7 +18209,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="1:17">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>324</v>
       </c>
@@ -18258,7 +18258,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="350" spans="1:17">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>325</v>
       </c>
@@ -18307,7 +18307,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="351" spans="1:17">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>326</v>
       </c>
@@ -18356,7 +18356,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="352" spans="1:17">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>327</v>
       </c>
@@ -18402,7 +18402,7 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="1:17">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>328</v>
       </c>
@@ -18454,7 +18454,7 @@
         <v/>
       </c>
     </row>
-    <row r="354" spans="1:17">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>329</v>
       </c>
@@ -18503,7 +18503,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="355" spans="1:17">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>330</v>
       </c>
@@ -18552,7 +18552,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="356" spans="1:17">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>331</v>
       </c>
@@ -18598,7 +18598,7 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="1:17">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>332</v>
       </c>
@@ -18650,7 +18650,7 @@
         <v/>
       </c>
     </row>
-    <row r="358" spans="1:17">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>333</v>
       </c>
@@ -18699,7 +18699,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="359" spans="1:17">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>334</v>
       </c>
@@ -18748,7 +18748,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="360" spans="1:17">
+    <row r="360" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>335</v>
       </c>
@@ -18794,7 +18794,7 @@
         <v/>
       </c>
     </row>
-    <row r="361" spans="1:17">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>336</v>
       </c>
@@ -18846,7 +18846,7 @@
         <v/>
       </c>
     </row>
-    <row r="362" spans="1:17">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>337</v>
       </c>
@@ -18895,7 +18895,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="363" spans="1:17">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>338</v>
       </c>
@@ -18944,7 +18944,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="364" spans="1:17">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>339</v>
       </c>
@@ -18990,7 +18990,7 @@
         <v/>
       </c>
     </row>
-    <row r="365" spans="1:17">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>340</v>
       </c>
@@ -19042,7 +19042,7 @@
         <v/>
       </c>
     </row>
-    <row r="366" spans="1:17">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>341</v>
       </c>
@@ -19091,7 +19091,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="367" spans="1:17">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>342</v>
       </c>
@@ -19140,7 +19140,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="368" spans="1:17">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>343</v>
       </c>
@@ -19186,7 +19186,7 @@
         <v/>
       </c>
     </row>
-    <row r="369" spans="1:17">
+    <row r="369" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>344</v>
       </c>
@@ -19238,7 +19238,7 @@
         <v/>
       </c>
     </row>
-    <row r="370" spans="1:17">
+    <row r="370" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>345</v>
       </c>
@@ -19287,7 +19287,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="371" spans="1:17">
+    <row r="371" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>346</v>
       </c>
@@ -19333,7 +19333,7 @@
         <v/>
       </c>
     </row>
-    <row r="372" spans="1:17">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>347</v>
       </c>
@@ -19382,7 +19382,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="373" spans="1:17">
+    <row r="373" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>348</v>
       </c>
@@ -19428,7 +19428,7 @@
         <v/>
       </c>
     </row>
-    <row r="374" spans="1:17">
+    <row r="374" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>349</v>
       </c>
@@ -19480,7 +19480,7 @@
         <v/>
       </c>
     </row>
-    <row r="375" spans="1:17">
+    <row r="375" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>350</v>
       </c>
@@ -19529,7 +19529,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="376" spans="1:17">
+    <row r="376" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>351</v>
       </c>
@@ -19578,7 +19578,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="377" spans="1:17">
+    <row r="377" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>352</v>
       </c>
@@ -19624,7 +19624,7 @@
         <v/>
       </c>
     </row>
-    <row r="378" spans="1:17">
+    <row r="378" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>353</v>
       </c>
@@ -19676,7 +19676,7 @@
         <v/>
       </c>
     </row>
-    <row r="379" spans="1:17">
+    <row r="379" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>354</v>
       </c>
@@ -19725,7 +19725,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="380" spans="1:17">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>355</v>
       </c>
@@ -19774,7 +19774,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="381" spans="1:17">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>356</v>
       </c>
@@ -19820,7 +19820,7 @@
         <v/>
       </c>
     </row>
-    <row r="382" spans="1:17">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>357</v>
       </c>
@@ -19872,7 +19872,7 @@
         <v/>
       </c>
     </row>
-    <row r="383" spans="1:17">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>358</v>
       </c>
@@ -19921,7 +19921,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="384" spans="1:17">
+    <row r="384" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>359</v>
       </c>
@@ -19970,7 +19970,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="385" spans="1:17">
+    <row r="385" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>360</v>
       </c>
@@ -20016,7 +20016,7 @@
         <v/>
       </c>
     </row>
-    <row r="386" spans="1:17">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>361</v>
       </c>
@@ -20068,7 +20068,7 @@
         <v/>
       </c>
     </row>
-    <row r="387" spans="1:17">
+    <row r="387" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>362</v>
       </c>
@@ -20117,7 +20117,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="388" spans="1:17">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>363</v>
       </c>
@@ -20166,7 +20166,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="389" spans="1:17">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>364</v>
       </c>
@@ -20212,7 +20212,7 @@
         <v/>
       </c>
     </row>
-    <row r="390" spans="1:17">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>365</v>
       </c>
@@ -20263,7 +20263,7 @@
         <v/>
       </c>
     </row>
-    <row r="391" spans="1:17">
+    <row r="391" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>366</v>
       </c>
@@ -20312,7 +20312,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="392" spans="1:17">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>367</v>
       </c>
@@ -20361,7 +20361,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="393" spans="1:17">
+    <row r="393" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>368</v>
       </c>
@@ -20407,7 +20407,7 @@
         <v/>
       </c>
     </row>
-    <row r="394" spans="1:17">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>369</v>
       </c>
@@ -20459,7 +20459,7 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="1:17">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>370</v>
       </c>
@@ -20508,7 +20508,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="396" spans="1:17">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>371</v>
       </c>
@@ -20557,7 +20557,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="397" spans="1:17">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>372</v>
       </c>
@@ -20603,7 +20603,7 @@
         <v/>
       </c>
     </row>
-    <row r="398" spans="1:17">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>373</v>
       </c>
@@ -20655,7 +20655,7 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="1:17">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>374</v>
       </c>
@@ -20704,7 +20704,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="400" spans="1:17">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>375</v>
       </c>
@@ -20753,7 +20753,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="401" spans="1:17">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>376</v>
       </c>
@@ -20799,7 +20799,7 @@
         <v/>
       </c>
     </row>
-    <row r="402" spans="1:17">
+    <row r="402" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>377</v>
       </c>
@@ -20854,7 +20854,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="403" spans="1:17">
+    <row r="403" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>378</v>
       </c>
@@ -20900,7 +20900,7 @@
         <v/>
       </c>
     </row>
-    <row r="404" spans="1:17">
+    <row r="404" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>379</v>
       </c>
@@ -20946,7 +20946,7 @@
         <v/>
       </c>
     </row>
-    <row r="405" spans="1:17">
+    <row r="405" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>380</v>
       </c>
@@ -20998,7 +20998,7 @@
         <v/>
       </c>
     </row>
-    <row r="406" spans="1:17">
+    <row r="406" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>381</v>
       </c>
@@ -21047,7 +21047,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="407" spans="1:17">
+    <row r="407" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>382</v>
       </c>
@@ -21096,7 +21096,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="408" spans="1:17">
+    <row r="408" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>383</v>
       </c>
@@ -21142,7 +21142,7 @@
         <v/>
       </c>
     </row>
-    <row r="409" spans="1:17">
+    <row r="409" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>384</v>
       </c>
@@ -21194,7 +21194,7 @@
         <v/>
       </c>
     </row>
-    <row r="410" spans="1:17">
+    <row r="410" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>385</v>
       </c>
@@ -21243,7 +21243,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="411" spans="1:17">
+    <row r="411" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>386</v>
       </c>
@@ -21289,7 +21289,7 @@
         <v/>
       </c>
     </row>
-    <row r="412" spans="1:17">
+    <row r="412" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>387</v>
       </c>
@@ -21338,7 +21338,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="413" spans="1:17">
+    <row r="413" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>388</v>
       </c>
@@ -21384,7 +21384,7 @@
         <v/>
       </c>
     </row>
-    <row r="414" spans="1:17">
+    <row r="414" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>389</v>
       </c>
@@ -21436,7 +21436,7 @@
         <v/>
       </c>
     </row>
-    <row r="415" spans="1:17">
+    <row r="415" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>390</v>
       </c>
@@ -21485,7 +21485,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="416" spans="1:17">
+    <row r="416" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>391</v>
       </c>
@@ -21534,7 +21534,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="417" spans="1:17">
+    <row r="417" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>392</v>
       </c>
@@ -21580,7 +21580,7 @@
         <v/>
       </c>
     </row>
-    <row r="418" spans="1:17">
+    <row r="418" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>393</v>
       </c>
@@ -21632,7 +21632,7 @@
         <v/>
       </c>
     </row>
-    <row r="419" spans="1:17">
+    <row r="419" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>394</v>
       </c>
@@ -21681,7 +21681,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="420" spans="1:17">
+    <row r="420" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>395</v>
       </c>
@@ -21730,7 +21730,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="421" spans="1:17">
+    <row r="421" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>396</v>
       </c>
@@ -21776,7 +21776,7 @@
         <v/>
       </c>
     </row>
-    <row r="422" spans="1:17">
+    <row r="422" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>397</v>
       </c>
@@ -21822,7 +21822,7 @@
         <v/>
       </c>
     </row>
-    <row r="423" spans="1:17">
+    <row r="423" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>398</v>
       </c>
@@ -21874,7 +21874,7 @@
         <v/>
       </c>
     </row>
-    <row r="424" spans="1:17">
+    <row r="424" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>399</v>
       </c>
@@ -21923,7 +21923,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="425" spans="1:17">
+    <row r="425" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>400</v>
       </c>
@@ -21972,7 +21972,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="426" spans="1:17">
+    <row r="426" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>401</v>
       </c>
@@ -22018,7 +22018,7 @@
         <v/>
       </c>
     </row>
-    <row r="427" spans="1:17">
+    <row r="427" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>402</v>
       </c>
@@ -22070,7 +22070,7 @@
         <v/>
       </c>
     </row>
-    <row r="428" spans="1:17">
+    <row r="428" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>403</v>
       </c>
@@ -22119,7 +22119,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="429" spans="1:17">
+    <row r="429" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>404</v>
       </c>
@@ -22168,7 +22168,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="430" spans="1:17">
+    <row r="430" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>405</v>
       </c>
@@ -22214,7 +22214,7 @@
         <v/>
       </c>
     </row>
-    <row r="431" spans="1:17">
+    <row r="431" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>406</v>
       </c>
@@ -22266,7 +22266,7 @@
         <v/>
       </c>
     </row>
-    <row r="432" spans="1:17">
+    <row r="432" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>407</v>
       </c>
@@ -22315,7 +22315,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="433" spans="1:17">
+    <row r="433" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>408</v>
       </c>
@@ -22361,7 +22361,7 @@
         <v/>
       </c>
     </row>
-    <row r="434" spans="1:17">
+    <row r="434" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>409</v>
       </c>
@@ -22410,7 +22410,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="435" spans="1:17">
+    <row r="435" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>410</v>
       </c>
@@ -22456,7 +22456,7 @@
         <v/>
       </c>
     </row>
-    <row r="436" spans="1:17">
+    <row r="436" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>411</v>
       </c>
@@ -22508,7 +22508,7 @@
         <v/>
       </c>
     </row>
-    <row r="437" spans="1:17">
+    <row r="437" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>412</v>
       </c>
@@ -22557,7 +22557,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="438" spans="1:17">
+    <row r="438" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>413</v>
       </c>
@@ -22603,7 +22603,7 @@
         <v/>
       </c>
     </row>
-    <row r="439" spans="1:17">
+    <row r="439" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>414</v>
       </c>
@@ -22652,7 +22652,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="440" spans="1:17">
+    <row r="440" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>415</v>
       </c>
@@ -22701,7 +22701,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="441" spans="1:17">
+    <row r="441" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>416</v>
       </c>
@@ -22747,7 +22747,7 @@
         <v/>
       </c>
     </row>
-    <row r="442" spans="1:17">
+    <row r="442" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>417</v>
       </c>
@@ -22799,7 +22799,7 @@
         <v/>
       </c>
     </row>
-    <row r="443" spans="1:17">
+    <row r="443" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>418</v>
       </c>
@@ -22848,7 +22848,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="444" spans="1:17">
+    <row r="444" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>419</v>
       </c>
@@ -22897,7 +22897,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="445" spans="1:17">
+    <row r="445" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>420</v>
       </c>
@@ -22943,7 +22943,7 @@
         <v/>
       </c>
     </row>
-    <row r="446" spans="1:17">
+    <row r="446" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>421</v>
       </c>
@@ -22995,7 +22995,7 @@
         <v/>
       </c>
     </row>
-    <row r="447" spans="1:17">
+    <row r="447" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>422</v>
       </c>
@@ -23044,7 +23044,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="448" spans="1:17">
+    <row r="448" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>423</v>
       </c>
@@ -23093,7 +23093,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="449" spans="1:17">
+    <row r="449" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>424</v>
       </c>
@@ -23139,7 +23139,7 @@
         <v/>
       </c>
     </row>
-    <row r="450" spans="1:17">
+    <row r="450" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>425</v>
       </c>
@@ -23191,7 +23191,7 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="1:17">
+    <row r="451" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>426</v>
       </c>
@@ -23240,7 +23240,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="452" spans="1:17">
+    <row r="452" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>427</v>
       </c>
@@ -23289,7 +23289,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="453" spans="1:17">
+    <row r="453" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>428</v>
       </c>
@@ -23335,7 +23335,7 @@
         <v/>
       </c>
     </row>
-    <row r="454" spans="1:17">
+    <row r="454" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>429</v>
       </c>
@@ -23381,7 +23381,7 @@
         <v/>
       </c>
     </row>
-    <row r="455" spans="1:17">
+    <row r="455" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>430</v>
       </c>
@@ -23433,7 +23433,7 @@
         <v/>
       </c>
     </row>
-    <row r="456" spans="1:17">
+    <row r="456" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>431</v>
       </c>
@@ -23482,7 +23482,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="457" spans="1:17">
+    <row r="457" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>432</v>
       </c>
@@ -23531,7 +23531,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="458" spans="1:17">
+    <row r="458" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>433</v>
       </c>
@@ -23577,7 +23577,7 @@
         <v/>
       </c>
     </row>
-    <row r="459" spans="1:17">
+    <row r="459" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>434</v>
       </c>
@@ -23629,7 +23629,7 @@
         <v/>
       </c>
     </row>
-    <row r="460" spans="1:17">
+    <row r="460" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>435</v>
       </c>
@@ -23678,7 +23678,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="461" spans="1:17">
+    <row r="461" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>436</v>
       </c>
@@ -23727,7 +23727,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="462" spans="1:17">
+    <row r="462" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>437</v>
       </c>
@@ -23776,7 +23776,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="463" spans="1:17">
+    <row r="463" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>438</v>
       </c>
@@ -23837,13 +23837,13 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -23854,7 +23854,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -23862,7 +23862,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>

--- a/assets/List_AllInputs_new1.xlsx
+++ b/assets/List_AllInputs_new1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coals01826\Desktop\Coding\hanson-bas\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DCE63E-E4F2-41CB-AED8-C4C98D77CBA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B577CE1-0C9C-488B-AF72-AE00F27B3DCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,18 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$463</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1291,7 +1280,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1302,6 +1291,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1612,7 +1605,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="D2:E15"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1796,7 +1789,7 @@
         <v>345</v>
       </c>
       <c r="P3" t="str">
-        <f t="shared" ref="P3:P81" si="0">IF(ISNUMBER(G3), "Number",  "Bool")</f>
+        <f>IF(ISNUMBER(G3), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q3" t="str">
@@ -1848,7 +1841,7 @@
         <v>345</v>
       </c>
       <c r="P4" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G4), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q4" t="str">
@@ -1897,7 +1890,7 @@
         <v>345</v>
       </c>
       <c r="P5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G5), "Number",  "Bool")</f>
         <v>Bool</v>
       </c>
       <c r="Q5" t="str">
@@ -1946,7 +1939,7 @@
         <v>345</v>
       </c>
       <c r="P6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G6), "Number",  "Bool")</f>
         <v>Bool</v>
       </c>
       <c r="Q6" t="str">
@@ -1992,7 +1985,7 @@
         <v>345</v>
       </c>
       <c r="P7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G7), "Number",  "Bool")</f>
         <v>Bool</v>
       </c>
       <c r="Q7" t="str">
@@ -2038,7 +2031,7 @@
         <v>345</v>
       </c>
       <c r="P8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G8), "Number",  "Bool")</f>
         <v>Bool</v>
       </c>
       <c r="Q8" t="str">
@@ -2084,7 +2077,7 @@
         <v>345</v>
       </c>
       <c r="P9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G9), "Number",  "Bool")</f>
         <v>Bool</v>
       </c>
       <c r="Q9" t="str">
@@ -2130,7 +2123,7 @@
         <v>345</v>
       </c>
       <c r="P10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G10), "Number",  "Bool")</f>
         <v>Bool</v>
       </c>
       <c r="Q10" t="str">
@@ -2182,7 +2175,7 @@
         <v>345</v>
       </c>
       <c r="P11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G11), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q11" t="str">
@@ -2231,7 +2224,7 @@
         <v>345</v>
       </c>
       <c r="P12" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G12), "Number",  "Bool")</f>
         <v>Bool</v>
       </c>
       <c r="Q12" t="str">
@@ -2280,7 +2273,7 @@
         <v>345</v>
       </c>
       <c r="P13" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G13), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q13" t="str">
@@ -2332,7 +2325,7 @@
         <v>345</v>
       </c>
       <c r="P14" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G14), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q14" t="str">
@@ -2381,7 +2374,7 @@
         <v>345</v>
       </c>
       <c r="P15" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G15), "Number",  "Bool")</f>
         <v>Bool</v>
       </c>
       <c r="Q15" t="str">
@@ -2391,28 +2384,28 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>279</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>279</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="E16" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="F16" t="s">
-        <v>248</v>
-      </c>
-      <c r="G16">
-        <v>0.08</v>
+        <v>302</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
       </c>
       <c r="I16">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>15</v>
@@ -2421,20 +2414,20 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>248</v>
+        <v>302</v>
       </c>
       <c r="N16" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="O16" t="s">
         <v>345</v>
       </c>
       <c r="P16" t="str">
-        <f t="shared" si="0"/>
-        <v>Number</v>
+        <f>IF(ISNUMBER(G16), "Number",  "Bool")</f>
+        <v>Bool</v>
       </c>
       <c r="Q16" t="str">
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H16,'Unit _Table'!A:A)), "")</f>
@@ -2446,31 +2439,28 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>280</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>280</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="E17" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="F17" t="s">
-        <v>248</v>
-      </c>
-      <c r="G17">
-        <v>601</v>
-      </c>
-      <c r="H17" t="s">
-        <v>39</v>
+        <v>302</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
       </c>
       <c r="I17">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
         <v>15</v>
@@ -2479,18 +2469,18 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O17" t="s">
         <v>345</v>
       </c>
       <c r="P17" t="str">
-        <f t="shared" si="0"/>
-        <v>Number</v>
+        <f>IF(ISNUMBER(G17), "Number",  "Bool")</f>
+        <v>Bool</v>
       </c>
       <c r="Q17" t="str">
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H17,'Unit _Table'!A:A)), "")</f>
-        <v>parts_per_million</v>
+        <v/>
       </c>
       <c r="R17" t="s">
         <v>360</v>
@@ -2498,13 +2488,13 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
         <v>32</v>
@@ -2516,10 +2506,7 @@
         <v>248</v>
       </c>
       <c r="G18">
-        <v>0.27</v>
-      </c>
-      <c r="H18" t="s">
-        <v>35</v>
+        <v>0.08</v>
       </c>
       <c r="I18">
         <v>1000</v>
@@ -2531,18 +2518,24 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="M18" t="s">
+        <v>248</v>
+      </c>
+      <c r="N18" t="s">
+        <v>340</v>
       </c>
       <c r="O18" t="s">
         <v>345</v>
       </c>
       <c r="P18" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G18), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q18" t="str">
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H18,'Unit _Table'!A:A)), "")</f>
-        <v>percent_relative_humidity</v>
+        <v/>
       </c>
       <c r="R18" t="s">
         <v>361</v>
@@ -2553,13 +2546,13 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
         <v>32</v>
@@ -2570,11 +2563,14 @@
       <c r="F19" t="s">
         <v>248</v>
       </c>
-      <c r="G19" t="s">
-        <v>21</v>
+      <c r="G19">
+        <v>601</v>
+      </c>
+      <c r="H19" t="s">
+        <v>39</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J19" t="s">
         <v>15</v>
@@ -2583,18 +2579,18 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O19" t="s">
         <v>345</v>
       </c>
       <c r="P19" t="str">
-        <f t="shared" si="0"/>
-        <v>Bool</v>
+        <f>IF(ISNUMBER(G19), "Number",  "Bool")</f>
+        <v>Number</v>
       </c>
       <c r="Q19" t="str">
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H19,'Unit _Table'!A:A)), "")</f>
-        <v/>
+        <v>parts_per_million</v>
       </c>
       <c r="R19" t="s">
         <v>362</v>
@@ -2602,13 +2598,13 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
         <v>32</v>
@@ -2619,11 +2615,14 @@
       <c r="F20" t="s">
         <v>248</v>
       </c>
-      <c r="G20" t="s">
-        <v>21</v>
+      <c r="G20">
+        <v>0.27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>35</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J20" t="s">
         <v>15</v>
@@ -2632,38 +2631,38 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O20" t="s">
         <v>345</v>
       </c>
       <c r="P20" t="str">
-        <f t="shared" si="0"/>
-        <v>Bool</v>
+        <f>IF(ISNUMBER(G20), "Number",  "Bool")</f>
+        <v>Number</v>
       </c>
       <c r="Q20" t="str">
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H20,'Unit _Table'!A:A)), "")</f>
-        <v/>
+        <v>percent_relative_humidity</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G21" t="s">
         <v>21</v>
@@ -2680,17 +2679,11 @@
       <c r="L21">
         <v>1</v>
       </c>
-      <c r="M21" t="s">
-        <v>249</v>
-      </c>
-      <c r="N21" t="s">
-        <v>340</v>
-      </c>
       <c r="O21" t="s">
         <v>345</v>
       </c>
       <c r="P21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G21), "Number",  "Bool")</f>
         <v>Bool</v>
       </c>
       <c r="Q21" t="str">
@@ -2703,31 +2696,28 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F22" t="s">
-        <v>249</v>
-      </c>
-      <c r="G22">
-        <v>0.39</v>
-      </c>
-      <c r="H22" t="s">
-        <v>35</v>
+        <v>248</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
       </c>
       <c r="I22">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
         <v>15</v>
@@ -2736,18 +2726,18 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O22" t="s">
         <v>345</v>
       </c>
       <c r="P22" t="str">
-        <f t="shared" si="0"/>
-        <v>Number</v>
+        <f>IF(ISNUMBER(G22), "Number",  "Bool")</f>
+        <v>Bool</v>
       </c>
       <c r="Q22" t="str">
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H22,'Unit _Table'!A:A)), "")</f>
-        <v>percent_relative_humidity</v>
+        <v/>
       </c>
       <c r="R22" t="s">
         <v>360</v>
@@ -2758,31 +2748,28 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>281</v>
       </c>
       <c r="B23">
-        <v>21</v>
+        <v>281</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="E23" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="F23" t="s">
-        <v>249</v>
-      </c>
-      <c r="G23">
-        <v>230.2</v>
-      </c>
-      <c r="H23" t="s">
-        <v>39</v>
+        <v>303</v>
+      </c>
+      <c r="G23" t="s">
+        <v>19</v>
       </c>
       <c r="I23">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>15</v>
@@ -2791,18 +2778,20 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="M23" t="s">
+        <v>303</v>
+      </c>
+      <c r="N23" t="s">
+        <v>340</v>
       </c>
       <c r="O23" t="s">
         <v>345</v>
       </c>
       <c r="P23" t="str">
-        <f t="shared" si="0"/>
-        <v>Number</v>
-      </c>
-      <c r="Q23" t="str">
-        <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H23,'Unit _Table'!A:A)), "")</f>
-        <v>parts_per_million</v>
+        <f>IF(ISNUMBER(G23), "Number",  "Bool")</f>
+        <v>Bool</v>
       </c>
       <c r="R23" t="s">
         <v>361</v>
@@ -2810,28 +2799,28 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>282</v>
       </c>
       <c r="B24">
-        <v>22</v>
+        <v>282</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="E24" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="F24" t="s">
-        <v>249</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
+        <v>303</v>
+      </c>
+      <c r="G24" t="s">
+        <v>19</v>
       </c>
       <c r="I24">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
         <v>15</v>
@@ -2840,18 +2829,14 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O24" t="s">
         <v>345</v>
       </c>
       <c r="P24" t="str">
-        <f t="shared" si="0"/>
-        <v>Number</v>
-      </c>
-      <c r="Q24" t="str">
-        <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H24,'Unit _Table'!A:A)), "")</f>
-        <v/>
+        <f>IF(ISNUMBER(G24), "Number",  "Bool")</f>
+        <v>Bool</v>
       </c>
       <c r="R24" t="s">
         <v>362</v>
@@ -2859,22 +2844,22 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="B25">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="E25" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="F25" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="G25" t="s">
         <v>21</v>
@@ -2889,18 +2874,14 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O25" t="s">
         <v>345</v>
       </c>
       <c r="P25" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G25), "Number",  "Bool")</f>
         <v>Bool</v>
-      </c>
-      <c r="Q25" t="str">
-        <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H25,'Unit _Table'!A:A)), "")</f>
-        <v/>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -3601,7 +3582,7 @@
         <v>345</v>
       </c>
       <c r="P46" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G46), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q46" t="str">
@@ -3650,7 +3631,7 @@
         <v>345</v>
       </c>
       <c r="P47" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G47), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q47" t="str">
@@ -3699,7 +3680,7 @@
         <v>345</v>
       </c>
       <c r="P48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G48), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q48" t="str">
@@ -3745,7 +3726,7 @@
         <v>345</v>
       </c>
       <c r="P49" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G49), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q49" t="str">
@@ -3791,7 +3772,7 @@
         <v>345</v>
       </c>
       <c r="P50" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G50), "Number",  "Bool")</f>
         <v>Bool</v>
       </c>
       <c r="Q50" t="str">
@@ -3843,7 +3824,7 @@
         <v>345</v>
       </c>
       <c r="P51" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G51), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q51" t="str">
@@ -3892,7 +3873,7 @@
         <v>345</v>
       </c>
       <c r="P52" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G52), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q52" t="str">
@@ -3941,7 +3922,7 @@
         <v>345</v>
       </c>
       <c r="P53" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G53), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q53" t="str">
@@ -3987,7 +3968,7 @@
         <v>345</v>
       </c>
       <c r="P54" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G54), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q54" t="str">
@@ -4042,7 +4023,7 @@
         <v>345</v>
       </c>
       <c r="P55" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G55), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q55" t="str">
@@ -4091,7 +4072,7 @@
         <v>345</v>
       </c>
       <c r="P56" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G56), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q56" t="str">
@@ -4137,7 +4118,7 @@
         <v>345</v>
       </c>
       <c r="P57" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G57), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q57" t="str">
@@ -4186,7 +4167,7 @@
         <v>345</v>
       </c>
       <c r="P58" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G58), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q58" t="str">
@@ -4235,7 +4216,7 @@
         <v>345</v>
       </c>
       <c r="P59" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G59), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q59" t="str">
@@ -4284,7 +4265,7 @@
         <v>345</v>
       </c>
       <c r="P60" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G60), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q60" t="str">
@@ -4336,7 +4317,7 @@
         <v>345</v>
       </c>
       <c r="P61" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G61), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q61" t="str">
@@ -4391,7 +4372,7 @@
         <v>345</v>
       </c>
       <c r="P62" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G62), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q62" t="str">
@@ -4440,7 +4421,7 @@
         <v>345</v>
       </c>
       <c r="P63" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G63), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q63" t="str">
@@ -4486,7 +4467,7 @@
         <v>345</v>
       </c>
       <c r="P64" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G64), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q64" t="str">
@@ -4535,7 +4516,7 @@
         <v>345</v>
       </c>
       <c r="P65" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G65), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q65" t="str">
@@ -4581,7 +4562,7 @@
         <v>345</v>
       </c>
       <c r="P66" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G66), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q66" t="str">
@@ -4627,7 +4608,7 @@
         <v>345</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G67), "Number",  "Bool")</f>
         <v>Bool</v>
       </c>
       <c r="Q67" t="str">
@@ -4682,7 +4663,7 @@
         <v>345</v>
       </c>
       <c r="P68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G68), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q68" t="str">
@@ -4731,7 +4712,7 @@
         <v>345</v>
       </c>
       <c r="P69" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G69), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q69" t="str">
@@ -4777,7 +4758,7 @@
         <v>345</v>
       </c>
       <c r="P70" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G70), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q70" t="str">
@@ -4832,7 +4813,7 @@
         <v>345</v>
       </c>
       <c r="P71" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G71), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q71" t="str">
@@ -4881,7 +4862,7 @@
         <v>345</v>
       </c>
       <c r="P72" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G72), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q72" t="str">
@@ -4930,7 +4911,7 @@
         <v>345</v>
       </c>
       <c r="P73" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G73), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q73" t="str">
@@ -4976,7 +4957,7 @@
         <v>345</v>
       </c>
       <c r="P74" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G74), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q74" t="str">
@@ -5025,7 +5006,7 @@
         <v>345</v>
       </c>
       <c r="P75" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G75), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q75" t="str">
@@ -5074,7 +5055,7 @@
         <v>345</v>
       </c>
       <c r="P76" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G76), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q76" t="str">
@@ -5126,7 +5107,7 @@
         <v>345</v>
       </c>
       <c r="P77" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G77), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q77" t="str">
@@ -5175,7 +5156,7 @@
         <v>345</v>
       </c>
       <c r="P78" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G78), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q78" t="str">
@@ -5224,7 +5205,7 @@
         <v>345</v>
       </c>
       <c r="P79" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G79), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q79" t="str">
@@ -5270,7 +5251,7 @@
         <v>345</v>
       </c>
       <c r="P80" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G80), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q80" t="str">
@@ -5322,7 +5303,7 @@
         <v>345</v>
       </c>
       <c r="P81" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(G81), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q81" t="str">
@@ -5371,7 +5352,7 @@
         <v>345</v>
       </c>
       <c r="P82" t="str">
-        <f t="shared" ref="P82:P145" si="1">IF(ISNUMBER(G82), "Number",  "Bool")</f>
+        <f>IF(ISNUMBER(G82), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q82" t="str">
@@ -5420,7 +5401,7 @@
         <v>345</v>
       </c>
       <c r="P83" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G83), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q83" t="str">
@@ -5466,7 +5447,7 @@
         <v>345</v>
       </c>
       <c r="P84" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G84), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q84" t="str">
@@ -5518,7 +5499,7 @@
         <v>345</v>
       </c>
       <c r="P85" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G85), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q85" t="str">
@@ -5567,7 +5548,7 @@
         <v>345</v>
       </c>
       <c r="P86" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G86), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q86" t="str">
@@ -5616,7 +5597,7 @@
         <v>345</v>
       </c>
       <c r="P87" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G87), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q87" t="str">
@@ -5665,7 +5646,7 @@
         <v>345</v>
       </c>
       <c r="P88" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G88), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q88" t="str">
@@ -5711,7 +5692,7 @@
         <v>345</v>
       </c>
       <c r="P89" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G89), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q89" t="str">
@@ -5763,7 +5744,7 @@
         <v>345</v>
       </c>
       <c r="P90" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G90), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q90" t="str">
@@ -5812,7 +5793,7 @@
         <v>345</v>
       </c>
       <c r="P91" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G91), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q91" t="str">
@@ -5861,7 +5842,7 @@
         <v>345</v>
       </c>
       <c r="P92" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G92), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q92" t="str">
@@ -5910,7 +5891,7 @@
         <v>345</v>
       </c>
       <c r="P93" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G93), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q93" t="str">
@@ -5959,7 +5940,7 @@
         <v>345</v>
       </c>
       <c r="P94" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G94), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q94" t="str">
@@ -6005,7 +5986,7 @@
         <v>345</v>
       </c>
       <c r="P95" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G95), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q95" t="str">
@@ -6060,7 +6041,7 @@
         <v>345</v>
       </c>
       <c r="P96" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G96), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q96" t="str">
@@ -6109,7 +6090,7 @@
         <v>345</v>
       </c>
       <c r="P97" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G97), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q97" t="str">
@@ -6158,7 +6139,7 @@
         <v>345</v>
       </c>
       <c r="P98" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G98), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q98" t="str">
@@ -6204,7 +6185,7 @@
         <v>345</v>
       </c>
       <c r="P99" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G99), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q99" t="str">
@@ -6250,7 +6231,7 @@
         <v>345</v>
       </c>
       <c r="P100" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G100), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q100" t="str">
@@ -6302,7 +6283,7 @@
         <v>345</v>
       </c>
       <c r="P101" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G101), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q101" t="str">
@@ -6351,7 +6332,7 @@
         <v>345</v>
       </c>
       <c r="P102" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G102), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q102" t="str">
@@ -6400,7 +6381,7 @@
         <v>345</v>
       </c>
       <c r="P103" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G103), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q103" t="str">
@@ -6449,7 +6430,7 @@
         <v>345</v>
       </c>
       <c r="P104" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G104), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q104" t="str">
@@ -6495,7 +6476,7 @@
         <v>345</v>
       </c>
       <c r="P105" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G105), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q105" t="str">
@@ -6550,7 +6531,7 @@
         <v>345</v>
       </c>
       <c r="P106" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G106), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q106" t="str">
@@ -6599,7 +6580,7 @@
         <v>345</v>
       </c>
       <c r="P107" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G107), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q107" t="str">
@@ -6645,7 +6626,7 @@
         <v>345</v>
       </c>
       <c r="P108" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G108), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q108" t="str">
@@ -6694,7 +6675,7 @@
         <v>345</v>
       </c>
       <c r="P109" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G109), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q109" t="str">
@@ -6740,7 +6721,7 @@
         <v>345</v>
       </c>
       <c r="P110" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G110), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q110" t="str">
@@ -6795,7 +6776,7 @@
         <v>345</v>
       </c>
       <c r="P111" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G111), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q111" t="str">
@@ -6844,7 +6825,7 @@
         <v>345</v>
       </c>
       <c r="P112" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G112), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q112" t="str">
@@ -6890,7 +6871,7 @@
         <v>345</v>
       </c>
       <c r="P113" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G113), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q113" t="str">
@@ -6939,7 +6920,7 @@
         <v>345</v>
       </c>
       <c r="P114" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G114), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q114" t="str">
@@ -6985,7 +6966,7 @@
         <v>345</v>
       </c>
       <c r="P115" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G115), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q115" t="str">
@@ -7040,7 +7021,7 @@
         <v>345</v>
       </c>
       <c r="P116" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G116), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q116" t="str">
@@ -7089,7 +7070,7 @@
         <v>345</v>
       </c>
       <c r="P117" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G117), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q117" t="str">
@@ -7135,7 +7116,7 @@
         <v>345</v>
       </c>
       <c r="P118" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G118), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q118" t="str">
@@ -7190,7 +7171,7 @@
         <v>345</v>
       </c>
       <c r="P119" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G119), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q119" t="str">
@@ -7239,7 +7220,7 @@
         <v>345</v>
       </c>
       <c r="P120" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G120), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q120" t="str">
@@ -7285,7 +7266,7 @@
         <v>345</v>
       </c>
       <c r="P121" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G121), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q121" t="str">
@@ -7340,7 +7321,7 @@
         <v>345</v>
       </c>
       <c r="P122" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G122), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q122" t="str">
@@ -7389,7 +7370,7 @@
         <v>345</v>
       </c>
       <c r="P123" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G123), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q123" t="str">
@@ -7435,7 +7416,7 @@
         <v>345</v>
       </c>
       <c r="P124" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G124), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q124" t="str">
@@ -7484,7 +7465,7 @@
         <v>345</v>
       </c>
       <c r="P125" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G125), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q125" t="str">
@@ -7530,7 +7511,7 @@
         <v>345</v>
       </c>
       <c r="P126" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G126), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q126" t="str">
@@ -7585,7 +7566,7 @@
         <v>345</v>
       </c>
       <c r="P127" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G127), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q127" t="str">
@@ -7631,7 +7612,7 @@
         <v>345</v>
       </c>
       <c r="P128" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G128), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q128" t="str">
@@ -7680,7 +7661,7 @@
         <v>345</v>
       </c>
       <c r="P129" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G129), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q129" t="str">
@@ -7729,7 +7710,7 @@
         <v>345</v>
       </c>
       <c r="P130" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G130), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q130" t="str">
@@ -7775,7 +7756,7 @@
         <v>345</v>
       </c>
       <c r="P131" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G131), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q131" t="str">
@@ -7830,7 +7811,7 @@
         <v>345</v>
       </c>
       <c r="P132" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G132), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q132" t="str">
@@ -7879,7 +7860,7 @@
         <v>345</v>
       </c>
       <c r="P133" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G133), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q133" t="str">
@@ -7925,7 +7906,7 @@
         <v>345</v>
       </c>
       <c r="P134" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G134), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q134" t="str">
@@ -7974,7 +7955,7 @@
         <v>345</v>
       </c>
       <c r="P135" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G135), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q135" t="str">
@@ -8023,7 +8004,7 @@
         <v>345</v>
       </c>
       <c r="P136" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G136), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q136" t="str">
@@ -8069,7 +8050,7 @@
         <v>345</v>
       </c>
       <c r="P137" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G137), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q137" t="str">
@@ -8121,7 +8102,7 @@
         <v>345</v>
       </c>
       <c r="P138" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G138), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q138" t="str">
@@ -8170,7 +8151,7 @@
         <v>345</v>
       </c>
       <c r="P139" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G139), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q139" t="str">
@@ -8219,7 +8200,7 @@
         <v>345</v>
       </c>
       <c r="P140" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G140), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q140" t="str">
@@ -8274,7 +8255,7 @@
         <v>345</v>
       </c>
       <c r="P141" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G141), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q141" t="str">
@@ -8323,7 +8304,7 @@
         <v>345</v>
       </c>
       <c r="P142" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G142), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q142" t="str">
@@ -8369,7 +8350,7 @@
         <v>345</v>
       </c>
       <c r="P143" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G143), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q143" t="str">
@@ -8418,7 +8399,7 @@
         <v>345</v>
       </c>
       <c r="P144" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G144), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q144" t="str">
@@ -8464,7 +8445,7 @@
         <v>345</v>
       </c>
       <c r="P145" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(G145), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q145" t="str">
@@ -8510,7 +8491,7 @@
         <v>345</v>
       </c>
       <c r="P146" t="str">
-        <f t="shared" ref="P146:P209" si="2">IF(ISNUMBER(G146), "Number",  "Bool")</f>
+        <f>IF(ISNUMBER(G146), "Number",  "Bool")</f>
         <v>Bool</v>
       </c>
       <c r="Q146" t="str">
@@ -8565,7 +8546,7 @@
         <v>345</v>
       </c>
       <c r="P147" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G147), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q147" t="str">
@@ -8611,7 +8592,7 @@
         <v>345</v>
       </c>
       <c r="P148" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G148), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q148" t="str">
@@ -8660,7 +8641,7 @@
         <v>345</v>
       </c>
       <c r="P149" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G149), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q149" t="str">
@@ -8709,7 +8690,7 @@
         <v>345</v>
       </c>
       <c r="P150" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G150), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q150" t="str">
@@ -8755,7 +8736,7 @@
         <v>345</v>
       </c>
       <c r="P151" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G151), "Number",  "Bool")</f>
         <v>Bool</v>
       </c>
       <c r="Q151" t="str">
@@ -8807,7 +8788,7 @@
         <v>345</v>
       </c>
       <c r="P152" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G152), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q152" t="str">
@@ -8856,7 +8837,7 @@
         <v>345</v>
       </c>
       <c r="P153" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G153), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q153" t="str">
@@ -8905,7 +8886,7 @@
         <v>345</v>
       </c>
       <c r="P154" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G154), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q154" t="str">
@@ -8954,7 +8935,7 @@
         <v>345</v>
       </c>
       <c r="P155" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G155), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q155" t="str">
@@ -9003,7 +8984,7 @@
         <v>345</v>
       </c>
       <c r="P156" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G156), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q156" t="str">
@@ -9049,7 +9030,7 @@
         <v>345</v>
       </c>
       <c r="P157" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G157), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q157" t="str">
@@ -9101,7 +9082,7 @@
         <v>345</v>
       </c>
       <c r="P158" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G158), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q158" t="str">
@@ -9150,7 +9131,7 @@
         <v>345</v>
       </c>
       <c r="P159" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G159), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q159" t="str">
@@ -9199,7 +9180,7 @@
         <v>345</v>
       </c>
       <c r="P160" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G160), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q160" t="str">
@@ -9245,7 +9226,7 @@
         <v>345</v>
       </c>
       <c r="P161" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G161), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q161" t="str">
@@ -9300,7 +9281,7 @@
         <v>345</v>
       </c>
       <c r="P162" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G162), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q162" t="str">
@@ -9349,7 +9330,7 @@
         <v>345</v>
       </c>
       <c r="P163" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G163), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q163" t="str">
@@ -9395,7 +9376,7 @@
         <v>345</v>
       </c>
       <c r="P164" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G164), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q164" t="str">
@@ -9444,7 +9425,7 @@
         <v>345</v>
       </c>
       <c r="P165" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G165), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q165" t="str">
@@ -9490,7 +9471,7 @@
         <v>345</v>
       </c>
       <c r="P166" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G166), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q166" t="str">
@@ -9545,7 +9526,7 @@
         <v>345</v>
       </c>
       <c r="P167" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G167), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q167" t="str">
@@ -9594,7 +9575,7 @@
         <v>345</v>
       </c>
       <c r="P168" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G168), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q168" t="str">
@@ -9640,7 +9621,7 @@
         <v>345</v>
       </c>
       <c r="P169" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G169), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q169" t="str">
@@ -9689,7 +9670,7 @@
         <v>345</v>
       </c>
       <c r="P170" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G170), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q170" t="str">
@@ -9735,7 +9716,7 @@
         <v>345</v>
       </c>
       <c r="P171" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G171), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q171" t="str">
@@ -9790,7 +9771,7 @@
         <v>345</v>
       </c>
       <c r="P172" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G172), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q172" t="str">
@@ -9839,7 +9820,7 @@
         <v>345</v>
       </c>
       <c r="P173" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G173), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q173" t="str">
@@ -9885,7 +9866,7 @@
         <v>345</v>
       </c>
       <c r="P174" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G174), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q174" t="str">
@@ -9934,7 +9915,7 @@
         <v>345</v>
       </c>
       <c r="P175" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G175), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q175" t="str">
@@ -9980,7 +9961,7 @@
         <v>345</v>
       </c>
       <c r="P176" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G176), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q176" t="str">
@@ -10035,7 +10016,7 @@
         <v>345</v>
       </c>
       <c r="P177" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G177), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q177" t="str">
@@ -10084,7 +10065,7 @@
         <v>345</v>
       </c>
       <c r="P178" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G178), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q178" t="str">
@@ -10130,7 +10111,7 @@
         <v>345</v>
       </c>
       <c r="P179" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G179), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q179" t="str">
@@ -10179,7 +10160,7 @@
         <v>345</v>
       </c>
       <c r="P180" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G180), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q180" t="str">
@@ -10225,7 +10206,7 @@
         <v>345</v>
       </c>
       <c r="P181" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G181), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q181" t="str">
@@ -10277,7 +10258,7 @@
         <v>345</v>
       </c>
       <c r="P182" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G182), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q182" t="str">
@@ -10326,7 +10307,7 @@
         <v>345</v>
       </c>
       <c r="P183" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G183), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q183" t="str">
@@ -10375,7 +10356,7 @@
         <v>345</v>
       </c>
       <c r="P184" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G184), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q184" t="str">
@@ -10424,7 +10405,7 @@
         <v>345</v>
       </c>
       <c r="P185" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G185), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q185" t="str">
@@ -10470,7 +10451,7 @@
         <v>345</v>
       </c>
       <c r="P186" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G186), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q186" t="str">
@@ -10525,7 +10506,7 @@
         <v>345</v>
       </c>
       <c r="P187" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G187), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q187" t="str">
@@ -10574,7 +10555,7 @@
         <v>345</v>
       </c>
       <c r="P188" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G188), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q188" t="str">
@@ -10620,7 +10601,7 @@
         <v>345</v>
       </c>
       <c r="P189" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G189), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q189" t="str">
@@ -10666,7 +10647,7 @@
         <v>345</v>
       </c>
       <c r="P190" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G190), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q190" t="str">
@@ -10721,7 +10702,7 @@
         <v>345</v>
       </c>
       <c r="P191" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G191), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q191" t="str">
@@ -10770,7 +10751,7 @@
         <v>345</v>
       </c>
       <c r="P192" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G192), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q192" t="str">
@@ -10816,7 +10797,7 @@
         <v>345</v>
       </c>
       <c r="P193" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G193), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q193" t="str">
@@ -10865,7 +10846,7 @@
         <v>345</v>
       </c>
       <c r="P194" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G194), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q194" t="str">
@@ -10911,7 +10892,7 @@
         <v>345</v>
       </c>
       <c r="P195" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G195), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q195" t="str">
@@ -10966,7 +10947,7 @@
         <v>345</v>
       </c>
       <c r="P196" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G196), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q196" t="str">
@@ -11015,7 +10996,7 @@
         <v>345</v>
       </c>
       <c r="P197" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G197), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q197" t="str">
@@ -11064,7 +11045,7 @@
         <v>345</v>
       </c>
       <c r="P198" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G198), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q198" t="str">
@@ -11110,7 +11091,7 @@
         <v>345</v>
       </c>
       <c r="P199" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G199), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q199" t="str">
@@ -11156,7 +11137,7 @@
         <v>345</v>
       </c>
       <c r="P200" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G200), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q200" t="str">
@@ -11202,7 +11183,7 @@
         <v>345</v>
       </c>
       <c r="P201" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G201), "Number",  "Bool")</f>
         <v>Bool</v>
       </c>
       <c r="Q201" t="str">
@@ -11257,7 +11238,7 @@
         <v>345</v>
       </c>
       <c r="P202" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G202), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q202" t="str">
@@ -11306,7 +11287,7 @@
         <v>345</v>
       </c>
       <c r="P203" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G203), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q203" t="str">
@@ -11352,7 +11333,7 @@
         <v>345</v>
       </c>
       <c r="P204" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G204), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q204" t="str">
@@ -11398,7 +11379,7 @@
         <v>345</v>
       </c>
       <c r="P205" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G205), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q205" t="str">
@@ -11453,7 +11434,7 @@
         <v>345</v>
       </c>
       <c r="P206" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G206), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q206" t="str">
@@ -11502,7 +11483,7 @@
         <v>345</v>
       </c>
       <c r="P207" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G207), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q207" t="str">
@@ -11548,7 +11529,7 @@
         <v>345</v>
       </c>
       <c r="P208" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G208), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q208" t="str">
@@ -11597,7 +11578,7 @@
         <v>345</v>
       </c>
       <c r="P209" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(G209), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q209" t="str">
@@ -11646,7 +11627,7 @@
         <v>345</v>
       </c>
       <c r="P210" t="str">
-        <f t="shared" ref="P210:P273" si="3">IF(ISNUMBER(G210), "Number",  "Bool")</f>
+        <f>IF(ISNUMBER(G210), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q210" t="str">
@@ -11692,7 +11673,7 @@
         <v>345</v>
       </c>
       <c r="P211" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G211), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q211" t="str">
@@ -11744,7 +11725,7 @@
         <v>345</v>
       </c>
       <c r="P212" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G212), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q212" t="str">
@@ -11793,7 +11774,7 @@
         <v>345</v>
       </c>
       <c r="P213" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G213), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q213" t="str">
@@ -11842,7 +11823,7 @@
         <v>345</v>
       </c>
       <c r="P214" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G214), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q214" t="str">
@@ -11891,7 +11872,7 @@
         <v>345</v>
       </c>
       <c r="P215" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G215), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q215" t="str">
@@ -11940,7 +11921,7 @@
         <v>345</v>
       </c>
       <c r="P216" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G216), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q216" t="str">
@@ -11986,7 +11967,7 @@
         <v>345</v>
       </c>
       <c r="P217" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G217), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q217" t="str">
@@ -12041,7 +12022,7 @@
         <v>345</v>
       </c>
       <c r="P218" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G218), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q218" t="str">
@@ -12090,7 +12071,7 @@
         <v>345</v>
       </c>
       <c r="P219" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G219), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q219" t="str">
@@ -12136,7 +12117,7 @@
         <v>345</v>
       </c>
       <c r="P220" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G220), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q220" t="str">
@@ -12185,7 +12166,7 @@
         <v>345</v>
       </c>
       <c r="P221" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G221), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q221" t="str">
@@ -12234,7 +12215,7 @@
         <v>345</v>
       </c>
       <c r="P222" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G222), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q222" t="str">
@@ -12280,7 +12261,7 @@
         <v>345</v>
       </c>
       <c r="P223" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G223), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q223" t="str">
@@ -12335,7 +12316,7 @@
         <v>345</v>
       </c>
       <c r="P224" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G224), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q224" t="str">
@@ -12384,7 +12365,7 @@
         <v>345</v>
       </c>
       <c r="P225" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G225), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q225" t="str">
@@ -12430,7 +12411,7 @@
         <v>345</v>
       </c>
       <c r="P226" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G226), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q226" t="str">
@@ -12479,7 +12460,7 @@
         <v>345</v>
       </c>
       <c r="P227" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G227), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q227" t="str">
@@ -12525,7 +12506,7 @@
         <v>345</v>
       </c>
       <c r="P228" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G228), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q228" t="str">
@@ -12571,7 +12552,7 @@
         <v>345</v>
       </c>
       <c r="P229" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G229), "Number",  "Bool")</f>
         <v>Bool</v>
       </c>
       <c r="Q229" t="str">
@@ -12626,7 +12607,7 @@
         <v>345</v>
       </c>
       <c r="P230" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G230), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q230" t="str">
@@ -12675,7 +12656,7 @@
         <v>345</v>
       </c>
       <c r="P231" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G231), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q231" t="str">
@@ -12724,7 +12705,7 @@
         <v>345</v>
       </c>
       <c r="P232" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G232), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q232" t="str">
@@ -12770,7 +12751,7 @@
         <v>345</v>
       </c>
       <c r="P233" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G233), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q233" t="str">
@@ -12816,7 +12797,7 @@
         <v>345</v>
       </c>
       <c r="P234" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G234), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q234" t="str">
@@ -12868,7 +12849,7 @@
         <v>345</v>
       </c>
       <c r="P235" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G235), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q235" t="str">
@@ -12917,7 +12898,7 @@
         <v>345</v>
       </c>
       <c r="P236" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G236), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q236" t="str">
@@ -12966,7 +12947,7 @@
         <v>345</v>
       </c>
       <c r="P237" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G237), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q237" t="str">
@@ -13015,7 +12996,7 @@
         <v>345</v>
       </c>
       <c r="P238" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G238), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q238" t="str">
@@ -13061,7 +13042,7 @@
         <v>345</v>
       </c>
       <c r="P239" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G239), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q239" t="str">
@@ -13113,7 +13094,7 @@
         <v>345</v>
       </c>
       <c r="P240" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G240), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q240" t="str">
@@ -13162,7 +13143,7 @@
         <v>345</v>
       </c>
       <c r="P241" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G241), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q241" t="str">
@@ -13211,7 +13192,7 @@
         <v>345</v>
       </c>
       <c r="P242" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G242), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q242" t="str">
@@ -13260,7 +13241,7 @@
         <v>345</v>
       </c>
       <c r="P243" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G243), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q243" t="str">
@@ -13306,7 +13287,7 @@
         <v>345</v>
       </c>
       <c r="P244" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G244), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q244" t="str">
@@ -13361,7 +13342,7 @@
         <v>345</v>
       </c>
       <c r="P245" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G245), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q245" t="str">
@@ -13410,7 +13391,7 @@
         <v>345</v>
       </c>
       <c r="P246" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G246), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q246" t="str">
@@ -13456,7 +13437,7 @@
         <v>345</v>
       </c>
       <c r="P247" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G247), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q247" t="str">
@@ -13505,7 +13486,7 @@
         <v>345</v>
       </c>
       <c r="P248" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G248), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q248" t="str">
@@ -13551,7 +13532,7 @@
         <v>345</v>
       </c>
       <c r="P249" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G249), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q249" t="str">
@@ -13606,7 +13587,7 @@
         <v>345</v>
       </c>
       <c r="P250" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G250), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q250" t="str">
@@ -13655,7 +13636,7 @@
         <v>345</v>
       </c>
       <c r="P251" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G251), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q251" t="str">
@@ -13701,7 +13682,7 @@
         <v>345</v>
       </c>
       <c r="P252" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G252), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q252" t="str">
@@ -13750,7 +13731,7 @@
         <v>345</v>
       </c>
       <c r="P253" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G253), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q253" t="str">
@@ -13796,7 +13777,7 @@
         <v>345</v>
       </c>
       <c r="P254" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G254), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q254" t="str">
@@ -13851,7 +13832,7 @@
         <v>345</v>
       </c>
       <c r="P255" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G255), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q255" t="str">
@@ -13900,7 +13881,7 @@
         <v>345</v>
       </c>
       <c r="P256" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G256), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q256" t="str">
@@ -13946,7 +13927,7 @@
         <v>345</v>
       </c>
       <c r="P257" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G257), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q257" t="str">
@@ -13995,7 +13976,7 @@
         <v>345</v>
       </c>
       <c r="P258" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G258), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q258" t="str">
@@ -14041,7 +14022,7 @@
         <v>345</v>
       </c>
       <c r="P259" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G259), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q259" t="str">
@@ -14093,7 +14074,7 @@
         <v>345</v>
       </c>
       <c r="P260" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G260), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q260" t="str">
@@ -14142,7 +14123,7 @@
         <v>345</v>
       </c>
       <c r="P261" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G261), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q261" t="str">
@@ -14191,7 +14172,7 @@
         <v>345</v>
       </c>
       <c r="P262" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G262), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q262" t="str">
@@ -14237,7 +14218,7 @@
         <v>345</v>
       </c>
       <c r="P263" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G263), "Number",  "Bool")</f>
         <v>Bool</v>
       </c>
       <c r="Q263" t="str">
@@ -14292,7 +14273,7 @@
         <v>345</v>
       </c>
       <c r="P264" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G264), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q264" t="str">
@@ -14341,7 +14322,7 @@
         <v>345</v>
       </c>
       <c r="P265" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G265), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q265" t="str">
@@ -14387,7 +14368,7 @@
         <v>345</v>
       </c>
       <c r="P266" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G266), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q266" t="str">
@@ -14442,7 +14423,7 @@
         <v>345</v>
       </c>
       <c r="P267" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G267), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q267" t="str">
@@ -14491,7 +14472,7 @@
         <v>345</v>
       </c>
       <c r="P268" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G268), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q268" t="str">
@@ -14537,7 +14518,7 @@
         <v>345</v>
       </c>
       <c r="P269" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G269), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q269" t="str">
@@ -14586,7 +14567,7 @@
         <v>345</v>
       </c>
       <c r="P270" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G270), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q270" t="str">
@@ -14635,7 +14616,7 @@
         <v>345</v>
       </c>
       <c r="P271" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G271), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q271" t="str">
@@ -14681,7 +14662,7 @@
         <v>345</v>
       </c>
       <c r="P272" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G272), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q272" t="str">
@@ -14736,7 +14717,7 @@
         <v>345</v>
       </c>
       <c r="P273" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(G273), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q273" t="str">
@@ -14785,7 +14766,7 @@
         <v>345</v>
       </c>
       <c r="P274" t="str">
-        <f t="shared" ref="P274:P345" si="4">IF(ISNUMBER(G274), "Number",  "Bool")</f>
+        <f>IF(ISNUMBER(G274), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q274" t="str">
@@ -14834,7 +14815,7 @@
         <v>345</v>
       </c>
       <c r="P275" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(G275), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q275" t="str">
@@ -14883,7 +14864,7 @@
         <v>345</v>
       </c>
       <c r="P276" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(G276), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q276" t="str">
@@ -14929,7 +14910,7 @@
         <v>345</v>
       </c>
       <c r="P277" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(G277), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q277" t="str">
@@ -14975,7 +14956,7 @@
         <v>345</v>
       </c>
       <c r="P278" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(G278), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q278" t="str">
@@ -15030,7 +15011,7 @@
         <v>345</v>
       </c>
       <c r="P279" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(G279), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q279" t="str">
@@ -15079,7 +15060,7 @@
         <v>345</v>
       </c>
       <c r="P280" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(G280), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q280" t="str">
@@ -15125,7 +15106,7 @@
         <v>345</v>
       </c>
       <c r="P281" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(G281), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q281" t="str">
@@ -15174,7 +15155,7 @@
         <v>345</v>
       </c>
       <c r="P282" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(G282), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q282" t="str">
@@ -15223,7 +15204,7 @@
         <v>345</v>
       </c>
       <c r="P283" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(G283), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q283" t="str">
@@ -15269,7 +15250,7 @@
         <v>345</v>
       </c>
       <c r="P284" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(G284), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q284" t="str">
@@ -15324,7 +15305,7 @@
         <v>345</v>
       </c>
       <c r="P285" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(G285), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q285" t="str">
@@ -15373,7 +15354,7 @@
         <v>345</v>
       </c>
       <c r="P286" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(G286), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q286" t="str">
@@ -15419,7 +15400,7 @@
         <v>345</v>
       </c>
       <c r="P287" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(G287), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q287" t="str">
@@ -15468,7 +15449,7 @@
         <v>345</v>
       </c>
       <c r="P288" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(G288), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q288" t="str">
@@ -15514,7 +15495,7 @@
         <v>345</v>
       </c>
       <c r="P289" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(G289), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q289" t="str">
@@ -15560,7 +15541,7 @@
         <v>345</v>
       </c>
       <c r="P290" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(G290), "Number",  "Bool")</f>
         <v>Bool</v>
       </c>
       <c r="Q290" t="str">
@@ -15615,7 +15596,7 @@
         <v>345</v>
       </c>
       <c r="P291" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(G291), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q291" t="str">
@@ -15664,7 +15645,7 @@
         <v>345</v>
       </c>
       <c r="P292" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(G292), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q292" t="str">
@@ -15713,7 +15694,7 @@
         <v>345</v>
       </c>
       <c r="P293" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(G293), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q293" t="str">
@@ -15759,7 +15740,7 @@
         <v>345</v>
       </c>
       <c r="P294" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(G294), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q294" t="str">
@@ -15805,7 +15786,7 @@
         <v>345</v>
       </c>
       <c r="P295" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(G295), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q295" t="str">
@@ -15815,22 +15796,22 @@
     </row>
     <row r="296" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B296">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C296" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D296" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E296" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F296" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G296" t="s">
         <v>19</v>
@@ -15845,343 +15826,275 @@
         <v>0</v>
       </c>
       <c r="L296">
+        <v>4</v>
+      </c>
+      <c r="O296" t="s">
+        <v>345</v>
+      </c>
+      <c r="P296" t="str">
+        <f>IF(ISNUMBER(G296), "Number",  "Bool")</f>
+        <v>Bool</v>
+      </c>
+    </row>
+    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A297" s="1"/>
+      <c r="C297" t="s">
+        <v>386</v>
+      </c>
+      <c r="D297" t="s">
+        <v>110</v>
+      </c>
+      <c r="E297" t="s">
+        <v>210</v>
+      </c>
+      <c r="F297" t="s">
+        <v>303</v>
+      </c>
+      <c r="H297" t="s">
+        <v>14</v>
+      </c>
+      <c r="I297">
+        <v>1000</v>
+      </c>
+      <c r="J297" t="s">
+        <v>15</v>
+      </c>
+      <c r="O297" t="s">
+        <v>345</v>
+      </c>
+      <c r="P297" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A298" s="1"/>
+      <c r="C298" t="s">
+        <v>387</v>
+      </c>
+      <c r="D298" t="s">
+        <v>110</v>
+      </c>
+      <c r="E298" t="s">
+        <v>210</v>
+      </c>
+      <c r="F298" t="s">
+        <v>303</v>
+      </c>
+      <c r="I298">
         <v>1</v>
       </c>
-      <c r="M296" t="s">
-        <v>302</v>
-      </c>
-      <c r="N296" t="s">
-        <v>342</v>
-      </c>
-      <c r="O296" t="s">
-        <v>345</v>
-      </c>
-      <c r="P296" t="str">
-        <f t="shared" si="4"/>
-        <v>Bool</v>
-      </c>
-      <c r="Q296" t="str">
+      <c r="J298" t="s">
+        <v>15</v>
+      </c>
+      <c r="O298" t="s">
+        <v>345</v>
+      </c>
+      <c r="P298" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A299" s="1"/>
+      <c r="C299" t="s">
+        <v>388</v>
+      </c>
+      <c r="D299" t="s">
+        <v>110</v>
+      </c>
+      <c r="E299" t="s">
+        <v>210</v>
+      </c>
+      <c r="F299" t="s">
+        <v>303</v>
+      </c>
+      <c r="I299">
+        <v>1</v>
+      </c>
+      <c r="J299" t="s">
+        <v>15</v>
+      </c>
+      <c r="O299" t="s">
+        <v>345</v>
+      </c>
+      <c r="P299" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A300" s="1"/>
+      <c r="C300" t="s">
+        <v>389</v>
+      </c>
+      <c r="D300" t="s">
+        <v>110</v>
+      </c>
+      <c r="E300" t="s">
+        <v>210</v>
+      </c>
+      <c r="F300" t="s">
+        <v>303</v>
+      </c>
+      <c r="I300">
+        <v>1</v>
+      </c>
+      <c r="J300" t="s">
+        <v>15</v>
+      </c>
+      <c r="O300" t="s">
+        <v>345</v>
+      </c>
+      <c r="P300" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A301" s="5"/>
+      <c r="C301" t="s">
+        <v>386</v>
+      </c>
+      <c r="D301" t="s">
+        <v>110</v>
+      </c>
+      <c r="E301" t="s">
+        <v>210</v>
+      </c>
+      <c r="F301" t="s">
+        <v>303</v>
+      </c>
+      <c r="H301" t="s">
+        <v>14</v>
+      </c>
+      <c r="I301">
+        <v>1000</v>
+      </c>
+      <c r="J301" t="s">
+        <v>15</v>
+      </c>
+      <c r="O301" t="s">
+        <v>345</v>
+      </c>
+      <c r="P301" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q301" t="str">
+        <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H293,'Unit _Table'!A:A)), "")</f>
+        <v>fahrenheit</v>
+      </c>
+    </row>
+    <row r="302" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A302" s="5"/>
+      <c r="C302" t="s">
+        <v>387</v>
+      </c>
+      <c r="D302" t="s">
+        <v>110</v>
+      </c>
+      <c r="E302" t="s">
+        <v>210</v>
+      </c>
+      <c r="F302" t="s">
+        <v>303</v>
+      </c>
+      <c r="I302">
+        <v>1</v>
+      </c>
+      <c r="J302" t="s">
+        <v>15</v>
+      </c>
+      <c r="O302" t="s">
+        <v>345</v>
+      </c>
+      <c r="P302" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q302" t="str">
+        <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H294,'Unit _Table'!A:A)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A303" s="5"/>
+      <c r="C303" t="s">
+        <v>388</v>
+      </c>
+      <c r="D303" t="s">
+        <v>110</v>
+      </c>
+      <c r="E303" t="s">
+        <v>210</v>
+      </c>
+      <c r="F303" t="s">
+        <v>303</v>
+      </c>
+      <c r="I303">
+        <v>1</v>
+      </c>
+      <c r="J303" t="s">
+        <v>15</v>
+      </c>
+      <c r="O303" t="s">
+        <v>345</v>
+      </c>
+      <c r="P303" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q303" t="str">
+        <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H295,'Unit _Table'!A:A)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A304" s="5"/>
+      <c r="C304" t="s">
+        <v>389</v>
+      </c>
+      <c r="D304" t="s">
+        <v>110</v>
+      </c>
+      <c r="E304" t="s">
+        <v>210</v>
+      </c>
+      <c r="F304" t="s">
+        <v>303</v>
+      </c>
+      <c r="I304">
+        <v>1</v>
+      </c>
+      <c r="J304" t="s">
+        <v>15</v>
+      </c>
+      <c r="O304" t="s">
+        <v>345</v>
+      </c>
+      <c r="P304" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q304" t="str">
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H296,'Unit _Table'!A:A)), "")</f>
         <v/>
       </c>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A297" s="1">
-        <v>280</v>
-      </c>
-      <c r="B297">
-        <v>280</v>
-      </c>
-      <c r="C297" t="s">
-        <v>108</v>
-      </c>
-      <c r="D297" t="s">
-        <v>107</v>
-      </c>
-      <c r="E297" t="s">
-        <v>209</v>
-      </c>
-      <c r="F297" t="s">
-        <v>302</v>
-      </c>
-      <c r="G297" t="s">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>19</v>
+      </c>
+      <c r="B305">
+        <v>19</v>
+      </c>
+      <c r="C305" t="s">
+        <v>36</v>
+      </c>
+      <c r="D305" t="s">
+        <v>38</v>
+      </c>
+      <c r="E305" t="s">
+        <v>156</v>
+      </c>
+      <c r="F305" t="s">
+        <v>249</v>
+      </c>
+      <c r="G305" t="s">
         <v>21</v>
-      </c>
-      <c r="I297">
-        <v>1</v>
-      </c>
-      <c r="J297" t="s">
-        <v>15</v>
-      </c>
-      <c r="K297">
-        <v>0</v>
-      </c>
-      <c r="L297">
-        <v>2</v>
-      </c>
-      <c r="O297" t="s">
-        <v>345</v>
-      </c>
-      <c r="P297" t="str">
-        <f t="shared" si="4"/>
-        <v>Bool</v>
-      </c>
-      <c r="Q297" t="str">
-        <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H297,'Unit _Table'!A:A)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A298" s="1">
-        <v>281</v>
-      </c>
-      <c r="B298">
-        <v>281</v>
-      </c>
-      <c r="C298" t="s">
-        <v>109</v>
-      </c>
-      <c r="D298" t="s">
-        <v>110</v>
-      </c>
-      <c r="E298" t="s">
-        <v>210</v>
-      </c>
-      <c r="F298" t="s">
-        <v>303</v>
-      </c>
-      <c r="G298" t="s">
-        <v>19</v>
-      </c>
-      <c r="I298">
-        <v>1</v>
-      </c>
-      <c r="J298" t="s">
-        <v>15</v>
-      </c>
-      <c r="K298">
-        <v>0</v>
-      </c>
-      <c r="L298">
-        <v>2</v>
-      </c>
-      <c r="M298" t="s">
-        <v>303</v>
-      </c>
-      <c r="N298" t="s">
-        <v>340</v>
-      </c>
-      <c r="O298" t="s">
-        <v>345</v>
-      </c>
-      <c r="P298" t="str">
-        <f>IF(ISNUMBER(G298), "Number",  "Bool")</f>
-        <v>Bool</v>
-      </c>
-    </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A299" s="1">
-        <v>282</v>
-      </c>
-      <c r="B299">
-        <v>282</v>
-      </c>
-      <c r="C299" t="s">
-        <v>111</v>
-      </c>
-      <c r="D299" t="s">
-        <v>110</v>
-      </c>
-      <c r="E299" t="s">
-        <v>210</v>
-      </c>
-      <c r="F299" t="s">
-        <v>303</v>
-      </c>
-      <c r="G299" t="s">
-        <v>19</v>
-      </c>
-      <c r="I299">
-        <v>1</v>
-      </c>
-      <c r="J299" t="s">
-        <v>15</v>
-      </c>
-      <c r="K299">
-        <v>0</v>
-      </c>
-      <c r="L299">
-        <v>3</v>
-      </c>
-      <c r="O299" t="s">
-        <v>345</v>
-      </c>
-      <c r="P299" t="str">
-        <f>IF(ISNUMBER(G299), "Number",  "Bool")</f>
-        <v>Bool</v>
-      </c>
-    </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A300" s="1">
-        <v>283</v>
-      </c>
-      <c r="B300">
-        <v>283</v>
-      </c>
-      <c r="C300" t="s">
-        <v>36</v>
-      </c>
-      <c r="D300" t="s">
-        <v>110</v>
-      </c>
-      <c r="E300" t="s">
-        <v>210</v>
-      </c>
-      <c r="F300" t="s">
-        <v>303</v>
-      </c>
-      <c r="G300" t="s">
-        <v>21</v>
-      </c>
-      <c r="I300">
-        <v>1</v>
-      </c>
-      <c r="J300" t="s">
-        <v>15</v>
-      </c>
-      <c r="K300">
-        <v>0</v>
-      </c>
-      <c r="L300">
-        <v>1</v>
-      </c>
-      <c r="O300" t="s">
-        <v>345</v>
-      </c>
-      <c r="P300" t="str">
-        <f>IF(ISNUMBER(G300), "Number",  "Bool")</f>
-        <v>Bool</v>
-      </c>
-    </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A301" s="1">
-        <v>284</v>
-      </c>
-      <c r="B301">
-        <v>284</v>
-      </c>
-      <c r="C301" t="s">
-        <v>112</v>
-      </c>
-      <c r="D301" t="s">
-        <v>110</v>
-      </c>
-      <c r="E301" t="s">
-        <v>210</v>
-      </c>
-      <c r="F301" t="s">
-        <v>303</v>
-      </c>
-      <c r="G301" t="s">
-        <v>19</v>
-      </c>
-      <c r="I301">
-        <v>1</v>
-      </c>
-      <c r="J301" t="s">
-        <v>15</v>
-      </c>
-      <c r="K301">
-        <v>0</v>
-      </c>
-      <c r="L301">
-        <v>4</v>
-      </c>
-      <c r="O301" t="s">
-        <v>345</v>
-      </c>
-      <c r="P301" t="str">
-        <f>IF(ISNUMBER(G301), "Number",  "Bool")</f>
-        <v>Bool</v>
-      </c>
-    </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A302" s="1"/>
-      <c r="C302" t="s">
-        <v>386</v>
-      </c>
-      <c r="D302" t="s">
-        <v>110</v>
-      </c>
-      <c r="E302" t="s">
-        <v>210</v>
-      </c>
-      <c r="F302" t="s">
-        <v>303</v>
-      </c>
-      <c r="H302" t="s">
-        <v>14</v>
-      </c>
-      <c r="I302">
-        <v>1000</v>
-      </c>
-      <c r="J302" t="s">
-        <v>15</v>
-      </c>
-      <c r="O302" t="s">
-        <v>345</v>
-      </c>
-      <c r="P302" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A303" s="1"/>
-      <c r="C303" t="s">
-        <v>387</v>
-      </c>
-      <c r="D303" t="s">
-        <v>110</v>
-      </c>
-      <c r="E303" t="s">
-        <v>210</v>
-      </c>
-      <c r="F303" t="s">
-        <v>303</v>
-      </c>
-      <c r="I303">
-        <v>1</v>
-      </c>
-      <c r="J303" t="s">
-        <v>15</v>
-      </c>
-      <c r="O303" t="s">
-        <v>345</v>
-      </c>
-      <c r="P303" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A304" s="1"/>
-      <c r="C304" t="s">
-        <v>388</v>
-      </c>
-      <c r="D304" t="s">
-        <v>110</v>
-      </c>
-      <c r="E304" t="s">
-        <v>210</v>
-      </c>
-      <c r="F304" t="s">
-        <v>303</v>
-      </c>
-      <c r="I304">
-        <v>1</v>
-      </c>
-      <c r="J304" t="s">
-        <v>15</v>
-      </c>
-      <c r="O304" t="s">
-        <v>345</v>
-      </c>
-      <c r="P304" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A305" s="1"/>
-      <c r="C305" t="s">
-        <v>389</v>
-      </c>
-      <c r="D305" t="s">
-        <v>110</v>
-      </c>
-      <c r="E305" t="s">
-        <v>210</v>
-      </c>
-      <c r="F305" t="s">
-        <v>303</v>
       </c>
       <c r="I305">
         <v>1</v>
@@ -16189,28 +16102,54 @@
       <c r="J305" t="s">
         <v>15</v>
       </c>
+      <c r="K305">
+        <v>0</v>
+      </c>
+      <c r="L305">
+        <v>1</v>
+      </c>
+      <c r="M305" t="s">
+        <v>249</v>
+      </c>
+      <c r="N305" t="s">
+        <v>340</v>
+      </c>
       <c r="O305" t="s">
         <v>345</v>
       </c>
-      <c r="P305" t="s">
-        <v>385</v>
+      <c r="P305" t="str">
+        <f>IF(ISNUMBER(G305), "Number",  "Bool")</f>
+        <v>Bool</v>
+      </c>
+      <c r="Q305" t="str">
+        <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H305,'Unit _Table'!A:A)), "")</f>
+        <v/>
       </c>
     </row>
     <row r="306" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A306" s="6">
+        <v>20</v>
+      </c>
+      <c r="B306">
+        <v>20</v>
+      </c>
       <c r="C306" t="s">
-        <v>386</v>
+        <v>34</v>
       </c>
       <c r="D306" t="s">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="E306" t="s">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="F306" t="s">
-        <v>303</v>
+        <v>249</v>
+      </c>
+      <c r="G306">
+        <v>0.39</v>
       </c>
       <c r="H306" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="I306">
         <v>1000</v>
@@ -16218,89 +16157,140 @@
       <c r="J306" t="s">
         <v>15</v>
       </c>
+      <c r="K306">
+        <v>0</v>
+      </c>
+      <c r="L306">
+        <v>2</v>
+      </c>
       <c r="O306" t="s">
         <v>345</v>
       </c>
-      <c r="P306" t="s">
-        <v>385</v>
+      <c r="P306" t="str">
+        <f>IF(ISNUMBER(G306), "Number",  "Bool")</f>
+        <v>Number</v>
       </c>
       <c r="Q306" t="str">
-        <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H298,'Unit _Table'!A:A)), "")</f>
+        <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H306,'Unit _Table'!A:A)), "")</f>
+        <v>percent_relative_humidity</v>
+      </c>
+    </row>
+    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A307" s="6">
+        <v>21</v>
+      </c>
+      <c r="B307">
+        <v>21</v>
+      </c>
+      <c r="C307" t="s">
+        <v>33</v>
+      </c>
+      <c r="D307" t="s">
+        <v>38</v>
+      </c>
+      <c r="E307" t="s">
+        <v>156</v>
+      </c>
+      <c r="F307" t="s">
+        <v>249</v>
+      </c>
+      <c r="G307">
+        <v>230.2</v>
+      </c>
+      <c r="H307" t="s">
+        <v>39</v>
+      </c>
+      <c r="I307">
+        <v>1000</v>
+      </c>
+      <c r="J307" t="s">
+        <v>15</v>
+      </c>
+      <c r="K307">
+        <v>0</v>
+      </c>
+      <c r="L307">
+        <v>3</v>
+      </c>
+      <c r="O307" t="s">
+        <v>345</v>
+      </c>
+      <c r="P307" t="str">
+        <f>IF(ISNUMBER(G307), "Number",  "Bool")</f>
+        <v>Number</v>
+      </c>
+      <c r="Q307" t="str">
+        <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H307,'Unit _Table'!A:A)), "")</f>
+        <v>parts_per_million</v>
+      </c>
+    </row>
+    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A308" s="6">
+        <v>22</v>
+      </c>
+      <c r="B308">
+        <v>22</v>
+      </c>
+      <c r="C308" t="s">
+        <v>31</v>
+      </c>
+      <c r="D308" t="s">
+        <v>38</v>
+      </c>
+      <c r="E308" t="s">
+        <v>156</v>
+      </c>
+      <c r="F308" t="s">
+        <v>249</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+      <c r="I308">
+        <v>1000</v>
+      </c>
+      <c r="J308" t="s">
+        <v>15</v>
+      </c>
+      <c r="K308">
+        <v>0</v>
+      </c>
+      <c r="L308">
+        <v>4</v>
+      </c>
+      <c r="O308" t="s">
+        <v>345</v>
+      </c>
+      <c r="P308" t="str">
+        <f>IF(ISNUMBER(G308), "Number",  "Bool")</f>
+        <v>Number</v>
+      </c>
+      <c r="Q308" t="str">
+        <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H308,'Unit _Table'!A:A)), "")</f>
         <v/>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C307" t="s">
-        <v>387</v>
-      </c>
-      <c r="D307" t="s">
-        <v>110</v>
-      </c>
-      <c r="E307" t="s">
-        <v>210</v>
-      </c>
-      <c r="F307" t="s">
-        <v>303</v>
-      </c>
-      <c r="I307">
-        <v>1</v>
-      </c>
-      <c r="J307" t="s">
-        <v>15</v>
-      </c>
-      <c r="O307" t="s">
-        <v>345</v>
-      </c>
-      <c r="P307" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q307" t="str">
-        <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H299,'Unit _Table'!A:A)), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C308" t="s">
-        <v>388</v>
-      </c>
-      <c r="D308" t="s">
-        <v>110</v>
-      </c>
-      <c r="E308" t="s">
-        <v>210</v>
-      </c>
-      <c r="F308" t="s">
-        <v>303</v>
-      </c>
-      <c r="I308">
-        <v>1</v>
-      </c>
-      <c r="J308" t="s">
-        <v>15</v>
-      </c>
-      <c r="O308" t="s">
-        <v>345</v>
-      </c>
-      <c r="P308" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q308" t="str">
-        <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H300,'Unit _Table'!A:A)), "")</f>
-        <v/>
-      </c>
-    </row>
     <row r="309" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A309" s="6">
+        <v>23</v>
+      </c>
+      <c r="B309">
+        <v>23</v>
+      </c>
       <c r="C309" t="s">
-        <v>389</v>
+        <v>40</v>
       </c>
       <c r="D309" t="s">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="E309" t="s">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="F309" t="s">
-        <v>303</v>
+        <v>249</v>
+      </c>
+      <c r="G309" t="s">
+        <v>21</v>
       </c>
       <c r="I309">
         <v>1</v>
@@ -16308,14 +16298,21 @@
       <c r="J309" t="s">
         <v>15</v>
       </c>
+      <c r="K309">
+        <v>0</v>
+      </c>
+      <c r="L309">
+        <v>5</v>
+      </c>
       <c r="O309" t="s">
         <v>345</v>
       </c>
-      <c r="P309" t="s">
-        <v>385</v>
+      <c r="P309" t="str">
+        <f>IF(ISNUMBER(G309), "Number",  "Bool")</f>
+        <v>Bool</v>
       </c>
       <c r="Q309" t="str">
-        <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H301,'Unit _Table'!A:A)), "")</f>
+        <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H309,'Unit _Table'!A:A)), "")</f>
         <v/>
       </c>
     </row>
@@ -16357,7 +16354,7 @@
         <v>345</v>
       </c>
       <c r="P310" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(G310), "Number",  "Bool")</f>
         <v>Bool</v>
       </c>
       <c r="Q310" t="str">
@@ -16406,7 +16403,7 @@
         <v>345</v>
       </c>
       <c r="P311" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(G311), "Number",  "Bool")</f>
         <v>Bool</v>
       </c>
       <c r="Q311" t="str">
@@ -16452,7 +16449,7 @@
         <v>345</v>
       </c>
       <c r="P312" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(G312), "Number",  "Bool")</f>
         <v>Bool</v>
       </c>
       <c r="Q312" t="str">
@@ -16498,7 +16495,7 @@
         <v>345</v>
       </c>
       <c r="P313" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(G313), "Number",  "Bool")</f>
         <v>Bool</v>
       </c>
       <c r="Q313" t="str">
@@ -16544,7 +16541,7 @@
         <v>345</v>
       </c>
       <c r="P314" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(G314), "Number",  "Bool")</f>
         <v>Bool</v>
       </c>
       <c r="Q314" t="str">
@@ -16596,7 +16593,7 @@
         <v>345</v>
       </c>
       <c r="P315" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="P274:P345" si="0">IF(ISNUMBER(G315), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q315" t="str">
@@ -16645,7 +16642,7 @@
         <v>345</v>
       </c>
       <c r="P316" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Number</v>
       </c>
       <c r="Q316" t="str">
@@ -16694,7 +16691,7 @@
         <v>345</v>
       </c>
       <c r="P317" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Number</v>
       </c>
       <c r="Q317" t="str">
@@ -16740,7 +16737,7 @@
         <v>345</v>
       </c>
       <c r="P318" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Number</v>
       </c>
       <c r="Q318" t="str">
@@ -16792,7 +16789,7 @@
         <v>345</v>
       </c>
       <c r="P319" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Number</v>
       </c>
       <c r="Q319" t="str">
@@ -16841,7 +16838,7 @@
         <v>345</v>
       </c>
       <c r="P320" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Number</v>
       </c>
       <c r="Q320" t="str">
@@ -16890,7 +16887,7 @@
         <v>345</v>
       </c>
       <c r="P321" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Number</v>
       </c>
       <c r="Q321" t="str">
@@ -16939,7 +16936,7 @@
         <v>345</v>
       </c>
       <c r="P322" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Number</v>
       </c>
       <c r="Q322" t="str">
@@ -16985,7 +16982,7 @@
         <v>345</v>
       </c>
       <c r="P323" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Number</v>
       </c>
       <c r="Q323" t="str">
@@ -17037,7 +17034,7 @@
         <v>345</v>
       </c>
       <c r="P324" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Number</v>
       </c>
       <c r="Q324" t="str">
@@ -17086,7 +17083,7 @@
         <v>345</v>
       </c>
       <c r="P325" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Number</v>
       </c>
       <c r="Q325" t="str">
@@ -17135,7 +17132,7 @@
         <v>345</v>
       </c>
       <c r="P326" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Number</v>
       </c>
       <c r="Q326" t="str">
@@ -17181,7 +17178,7 @@
         <v>345</v>
       </c>
       <c r="P327" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Number</v>
       </c>
       <c r="Q327" t="str">
@@ -17233,7 +17230,7 @@
         <v>345</v>
       </c>
       <c r="P328" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Number</v>
       </c>
       <c r="Q328" t="str">
@@ -17282,7 +17279,7 @@
         <v>345</v>
       </c>
       <c r="P329" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Number</v>
       </c>
       <c r="Q329" t="str">
@@ -17328,7 +17325,7 @@
         <v>345</v>
       </c>
       <c r="P330" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Bool</v>
       </c>
       <c r="Q330" t="str">
@@ -17374,7 +17371,7 @@
         <v>345</v>
       </c>
       <c r="P331" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Bool</v>
       </c>
       <c r="Q331" t="str">
@@ -17423,7 +17420,7 @@
         <v>345</v>
       </c>
       <c r="P332" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Number</v>
       </c>
       <c r="Q332" t="str">
@@ -17469,7 +17466,7 @@
         <v>345</v>
       </c>
       <c r="P333" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Number</v>
       </c>
       <c r="Q333" t="str">
@@ -17521,7 +17518,7 @@
         <v>345</v>
       </c>
       <c r="P334" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Number</v>
       </c>
       <c r="Q334" t="str">
@@ -17570,7 +17567,7 @@
         <v>345</v>
       </c>
       <c r="P335" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Number</v>
       </c>
       <c r="Q335" t="str">
@@ -17619,7 +17616,7 @@
         <v>345</v>
       </c>
       <c r="P336" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Number</v>
       </c>
       <c r="Q336" t="str">
@@ -17665,7 +17662,7 @@
         <v>345</v>
       </c>
       <c r="P337" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Number</v>
       </c>
       <c r="Q337" t="str">
@@ -17717,7 +17714,7 @@
         <v>345</v>
       </c>
       <c r="P338" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Number</v>
       </c>
       <c r="Q338" t="str">
@@ -17766,7 +17763,7 @@
         <v>345</v>
       </c>
       <c r="P339" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Number</v>
       </c>
       <c r="Q339" t="str">
@@ -17815,7 +17812,7 @@
         <v>345</v>
       </c>
       <c r="P340" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Number</v>
       </c>
       <c r="Q340" t="str">
@@ -17861,7 +17858,7 @@
         <v>345</v>
       </c>
       <c r="P341" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Number</v>
       </c>
       <c r="Q341" t="str">
@@ -17907,7 +17904,7 @@
         <v>345</v>
       </c>
       <c r="P342" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Bool</v>
       </c>
       <c r="Q342" t="str">
@@ -17959,7 +17956,7 @@
         <v>345</v>
       </c>
       <c r="P343" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Number</v>
       </c>
       <c r="Q343" t="str">
@@ -18008,7 +18005,7 @@
         <v>345</v>
       </c>
       <c r="P344" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Number</v>
       </c>
       <c r="Q344" t="str">
@@ -18054,7 +18051,7 @@
         <v>345</v>
       </c>
       <c r="P345" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Bool</v>
       </c>
       <c r="Q345" t="str">
@@ -18103,7 +18100,7 @@
         <v>345</v>
       </c>
       <c r="P346" t="str">
-        <f t="shared" ref="P346:P409" si="5">IF(ISNUMBER(G346), "Number",  "Bool")</f>
+        <f t="shared" ref="P346:P409" si="1">IF(ISNUMBER(G346), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q346" t="str">
@@ -18149,7 +18146,7 @@
         <v>345</v>
       </c>
       <c r="P347" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q347" t="str">
@@ -18201,7 +18198,7 @@
         <v>345</v>
       </c>
       <c r="P348" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q348" t="str">
@@ -18250,7 +18247,7 @@
         <v>345</v>
       </c>
       <c r="P349" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q349" t="str">
@@ -18299,7 +18296,7 @@
         <v>345</v>
       </c>
       <c r="P350" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q350" t="str">
@@ -18348,7 +18345,7 @@
         <v>345</v>
       </c>
       <c r="P351" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q351" t="str">
@@ -18394,7 +18391,7 @@
         <v>345</v>
       </c>
       <c r="P352" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q352" t="str">
@@ -18446,7 +18443,7 @@
         <v>345</v>
       </c>
       <c r="P353" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q353" t="str">
@@ -18495,7 +18492,7 @@
         <v>345</v>
       </c>
       <c r="P354" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q354" t="str">
@@ -18544,7 +18541,7 @@
         <v>345</v>
       </c>
       <c r="P355" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q355" t="str">
@@ -18590,7 +18587,7 @@
         <v>345</v>
       </c>
       <c r="P356" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q356" t="str">
@@ -18642,7 +18639,7 @@
         <v>345</v>
       </c>
       <c r="P357" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q357" t="str">
@@ -18691,7 +18688,7 @@
         <v>345</v>
       </c>
       <c r="P358" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q358" t="str">
@@ -18740,7 +18737,7 @@
         <v>345</v>
       </c>
       <c r="P359" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q359" t="str">
@@ -18786,7 +18783,7 @@
         <v>345</v>
       </c>
       <c r="P360" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q360" t="str">
@@ -18838,7 +18835,7 @@
         <v>345</v>
       </c>
       <c r="P361" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q361" t="str">
@@ -18887,7 +18884,7 @@
         <v>345</v>
       </c>
       <c r="P362" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q362" t="str">
@@ -18936,7 +18933,7 @@
         <v>345</v>
       </c>
       <c r="P363" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q363" t="str">
@@ -18982,7 +18979,7 @@
         <v>345</v>
       </c>
       <c r="P364" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q364" t="str">
@@ -19034,7 +19031,7 @@
         <v>345</v>
       </c>
       <c r="P365" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q365" t="str">
@@ -19083,7 +19080,7 @@
         <v>345</v>
       </c>
       <c r="P366" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q366" t="str">
@@ -19132,7 +19129,7 @@
         <v>345</v>
       </c>
       <c r="P367" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q367" t="str">
@@ -19178,7 +19175,7 @@
         <v>345</v>
       </c>
       <c r="P368" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q368" t="str">
@@ -19230,7 +19227,7 @@
         <v>345</v>
       </c>
       <c r="P369" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q369" t="str">
@@ -19279,7 +19276,7 @@
         <v>345</v>
       </c>
       <c r="P370" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q370" t="str">
@@ -19325,7 +19322,7 @@
         <v>345</v>
       </c>
       <c r="P371" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Bool</v>
       </c>
       <c r="Q371" t="str">
@@ -19374,7 +19371,7 @@
         <v>345</v>
       </c>
       <c r="P372" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q372" t="str">
@@ -19420,7 +19417,7 @@
         <v>345</v>
       </c>
       <c r="P373" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q373" t="str">
@@ -19472,7 +19469,7 @@
         <v>345</v>
       </c>
       <c r="P374" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q374" t="str">
@@ -19521,7 +19518,7 @@
         <v>345</v>
       </c>
       <c r="P375" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q375" t="str">
@@ -19570,7 +19567,7 @@
         <v>345</v>
       </c>
       <c r="P376" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q376" t="str">
@@ -19616,7 +19613,7 @@
         <v>345</v>
       </c>
       <c r="P377" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q377" t="str">
@@ -19668,7 +19665,7 @@
         <v>345</v>
       </c>
       <c r="P378" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q378" t="str">
@@ -19717,7 +19714,7 @@
         <v>345</v>
       </c>
       <c r="P379" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q379" t="str">
@@ -19766,7 +19763,7 @@
         <v>345</v>
       </c>
       <c r="P380" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q380" t="str">
@@ -19812,7 +19809,7 @@
         <v>345</v>
       </c>
       <c r="P381" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q381" t="str">
@@ -19864,7 +19861,7 @@
         <v>345</v>
       </c>
       <c r="P382" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q382" t="str">
@@ -19913,7 +19910,7 @@
         <v>345</v>
       </c>
       <c r="P383" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q383" t="str">
@@ -19962,7 +19959,7 @@
         <v>345</v>
       </c>
       <c r="P384" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q384" t="str">
@@ -20008,7 +20005,7 @@
         <v>345</v>
       </c>
       <c r="P385" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q385" t="str">
@@ -20060,7 +20057,7 @@
         <v>345</v>
       </c>
       <c r="P386" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q386" t="str">
@@ -20109,7 +20106,7 @@
         <v>345</v>
       </c>
       <c r="P387" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q387" t="str">
@@ -20158,7 +20155,7 @@
         <v>345</v>
       </c>
       <c r="P388" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q388" t="str">
@@ -20204,7 +20201,7 @@
         <v>345</v>
       </c>
       <c r="P389" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q389" t="str">
@@ -20304,7 +20301,7 @@
         <v>345</v>
       </c>
       <c r="P391" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q391" t="str">
@@ -20353,7 +20350,7 @@
         <v>345</v>
       </c>
       <c r="P392" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q392" t="str">
@@ -20399,7 +20396,7 @@
         <v>345</v>
       </c>
       <c r="P393" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q393" t="str">
@@ -20451,7 +20448,7 @@
         <v>345</v>
       </c>
       <c r="P394" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q394" t="str">
@@ -20500,7 +20497,7 @@
         <v>345</v>
       </c>
       <c r="P395" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q395" t="str">
@@ -20549,7 +20546,7 @@
         <v>345</v>
       </c>
       <c r="P396" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q396" t="str">
@@ -20595,7 +20592,7 @@
         <v>345</v>
       </c>
       <c r="P397" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q397" t="str">
@@ -20647,7 +20644,7 @@
         <v>345</v>
       </c>
       <c r="P398" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q398" t="str">
@@ -20696,7 +20693,7 @@
         <v>345</v>
       </c>
       <c r="P399" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q399" t="str">
@@ -20745,7 +20742,7 @@
         <v>345</v>
       </c>
       <c r="P400" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q400" t="str">
@@ -20791,7 +20788,7 @@
         <v>345</v>
       </c>
       <c r="P401" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q401" t="str">
@@ -20846,7 +20843,7 @@
         <v>345</v>
       </c>
       <c r="P402" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q402" t="str">
@@ -20892,7 +20889,7 @@
         <v>345</v>
       </c>
       <c r="P403" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Bool</v>
       </c>
       <c r="Q403" t="str">
@@ -20938,7 +20935,7 @@
         <v>345</v>
       </c>
       <c r="P404" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q404" t="str">
@@ -20990,7 +20987,7 @@
         <v>345</v>
       </c>
       <c r="P405" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q405" t="str">
@@ -21039,7 +21036,7 @@
         <v>345</v>
       </c>
       <c r="P406" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q406" t="str">
@@ -21088,7 +21085,7 @@
         <v>345</v>
       </c>
       <c r="P407" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q407" t="str">
@@ -21134,7 +21131,7 @@
         <v>345</v>
       </c>
       <c r="P408" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q408" t="str">
@@ -21186,7 +21183,7 @@
         <v>345</v>
       </c>
       <c r="P409" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Number</v>
       </c>
       <c r="Q409" t="str">
@@ -21235,7 +21232,7 @@
         <v>345</v>
       </c>
       <c r="P410" t="str">
-        <f t="shared" ref="P410:P463" si="6">IF(ISNUMBER(G410), "Number",  "Bool")</f>
+        <f t="shared" ref="P410:P463" si="2">IF(ISNUMBER(G410), "Number",  "Bool")</f>
         <v>Number</v>
       </c>
       <c r="Q410" t="str">
@@ -21281,7 +21278,7 @@
         <v>345</v>
       </c>
       <c r="P411" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Bool</v>
       </c>
       <c r="Q411" t="str">
@@ -21330,7 +21327,7 @@
         <v>345</v>
       </c>
       <c r="P412" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q412" t="str">
@@ -21376,7 +21373,7 @@
         <v>345</v>
       </c>
       <c r="P413" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q413" t="str">
@@ -21428,7 +21425,7 @@
         <v>345</v>
       </c>
       <c r="P414" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q414" t="str">
@@ -21477,7 +21474,7 @@
         <v>345</v>
       </c>
       <c r="P415" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q415" t="str">
@@ -21526,7 +21523,7 @@
         <v>345</v>
       </c>
       <c r="P416" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q416" t="str">
@@ -21572,7 +21569,7 @@
         <v>345</v>
       </c>
       <c r="P417" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q417" t="str">
@@ -21624,7 +21621,7 @@
         <v>345</v>
       </c>
       <c r="P418" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q418" t="str">
@@ -21673,7 +21670,7 @@
         <v>345</v>
       </c>
       <c r="P419" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q419" t="str">
@@ -21722,7 +21719,7 @@
         <v>345</v>
       </c>
       <c r="P420" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q420" t="str">
@@ -21768,7 +21765,7 @@
         <v>345</v>
       </c>
       <c r="P421" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q421" t="str">
@@ -21814,7 +21811,7 @@
         <v>345</v>
       </c>
       <c r="P422" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Bool</v>
       </c>
       <c r="Q422" t="str">
@@ -21866,7 +21863,7 @@
         <v>345</v>
       </c>
       <c r="P423" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q423" t="str">
@@ -21915,7 +21912,7 @@
         <v>345</v>
       </c>
       <c r="P424" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q424" t="str">
@@ -21964,7 +21961,7 @@
         <v>345</v>
       </c>
       <c r="P425" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q425" t="str">
@@ -22010,7 +22007,7 @@
         <v>345</v>
       </c>
       <c r="P426" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q426" t="str">
@@ -22062,7 +22059,7 @@
         <v>345</v>
       </c>
       <c r="P427" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q427" t="str">
@@ -22111,7 +22108,7 @@
         <v>345</v>
       </c>
       <c r="P428" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q428" t="str">
@@ -22160,7 +22157,7 @@
         <v>345</v>
       </c>
       <c r="P429" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q429" t="str">
@@ -22206,7 +22203,7 @@
         <v>345</v>
       </c>
       <c r="P430" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q430" t="str">
@@ -22258,7 +22255,7 @@
         <v>345</v>
       </c>
       <c r="P431" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q431" t="str">
@@ -22307,7 +22304,7 @@
         <v>345</v>
       </c>
       <c r="P432" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q432" t="str">
@@ -22353,7 +22350,7 @@
         <v>345</v>
       </c>
       <c r="P433" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Bool</v>
       </c>
       <c r="Q433" t="str">
@@ -22402,7 +22399,7 @@
         <v>345</v>
       </c>
       <c r="P434" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q434" t="str">
@@ -22448,7 +22445,7 @@
         <v>345</v>
       </c>
       <c r="P435" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q435" t="str">
@@ -22500,7 +22497,7 @@
         <v>345</v>
       </c>
       <c r="P436" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q436" t="str">
@@ -22549,7 +22546,7 @@
         <v>345</v>
       </c>
       <c r="P437" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q437" t="str">
@@ -22595,7 +22592,7 @@
         <v>345</v>
       </c>
       <c r="P438" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Bool</v>
       </c>
       <c r="Q438" t="str">
@@ -22644,7 +22641,7 @@
         <v>345</v>
       </c>
       <c r="P439" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q439" t="str">
@@ -22693,7 +22690,7 @@
         <v>345</v>
       </c>
       <c r="P440" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q440" t="str">
@@ -22739,7 +22736,7 @@
         <v>345</v>
       </c>
       <c r="P441" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q441" t="str">
@@ -22791,7 +22788,7 @@
         <v>345</v>
       </c>
       <c r="P442" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q442" t="str">
@@ -22840,7 +22837,7 @@
         <v>345</v>
       </c>
       <c r="P443" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q443" t="str">
@@ -22889,7 +22886,7 @@
         <v>345</v>
       </c>
       <c r="P444" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q444" t="str">
@@ -22935,7 +22932,7 @@
         <v>345</v>
       </c>
       <c r="P445" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q445" t="str">
@@ -22987,7 +22984,7 @@
         <v>345</v>
       </c>
       <c r="P446" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q446" t="str">
@@ -23036,7 +23033,7 @@
         <v>345</v>
       </c>
       <c r="P447" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q447" t="str">
@@ -23085,7 +23082,7 @@
         <v>345</v>
       </c>
       <c r="P448" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q448" t="str">
@@ -23131,7 +23128,7 @@
         <v>345</v>
       </c>
       <c r="P449" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q449" t="str">
@@ -23183,7 +23180,7 @@
         <v>345</v>
       </c>
       <c r="P450" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q450" t="str">
@@ -23232,7 +23229,7 @@
         <v>345</v>
       </c>
       <c r="P451" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q451" t="str">
@@ -23281,7 +23278,7 @@
         <v>345</v>
       </c>
       <c r="P452" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q452" t="str">
@@ -23327,7 +23324,7 @@
         <v>345</v>
       </c>
       <c r="P453" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q453" t="str">
@@ -23373,7 +23370,7 @@
         <v>345</v>
       </c>
       <c r="P454" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Bool</v>
       </c>
       <c r="Q454" t="str">
@@ -23425,7 +23422,7 @@
         <v>345</v>
       </c>
       <c r="P455" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q455" t="str">
@@ -23474,7 +23471,7 @@
         <v>345</v>
       </c>
       <c r="P456" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q456" t="str">
@@ -23523,7 +23520,7 @@
         <v>345</v>
       </c>
       <c r="P457" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q457" t="str">
@@ -23569,7 +23566,7 @@
         <v>345</v>
       </c>
       <c r="P458" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q458" t="str">
@@ -23621,7 +23618,7 @@
         <v>345</v>
       </c>
       <c r="P459" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q459" t="str">
@@ -23670,7 +23667,7 @@
         <v>345</v>
       </c>
       <c r="P460" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q460" t="str">
@@ -23719,7 +23716,7 @@
         <v>345</v>
       </c>
       <c r="P461" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q461" t="str">
@@ -23768,7 +23765,7 @@
         <v>345</v>
       </c>
       <c r="P462" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q462" t="str">
@@ -23814,7 +23811,7 @@
         <v>345</v>
       </c>
       <c r="P463" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>Number</v>
       </c>
       <c r="Q463" t="str">
@@ -23823,7 +23820,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q463" xr:uid="{8CE24A3D-7D3D-4394-835E-D7C0753FCA57}"/>
+  <autoFilter ref="A1:Q463" xr:uid="{8CE24A3D-7D3D-4394-835E-D7C0753FCA57}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q314">
+      <sortCondition ref="E1:E463"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
